--- a/kelly.xlsx
+++ b/kelly.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Cumhur" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t xml:space="preserve">Kelly Kriterine Gore Lot ve Para Yonetimi</t>
   </si>
@@ -96,13 +99,71 @@
   <si>
     <t xml:space="preserve">Sermaye</t>
   </si>
+  <si>
+    <t xml:space="preserve">Hacim Komisyon: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kar/Zarar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Point Kar/Zarar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kar Bayrak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zarar Bayrak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Kar Zarar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zararli Poz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karli Poz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilme Oran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ort Point Kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ort Point  Z.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD of balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of Bal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharp Orani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilk bakiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakiye Degisim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakiye</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -180,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,6 +251,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -272,8 +337,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,20 +385,23 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>11.2</v>
+        <f aca="false">Cumhur!N4</f>
+        <v>203.631578947368</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>14.6</v>
+        <f aca="false">Cumhur!O4</f>
+        <v>255.125</v>
       </c>
       <c r="C5" s="2" t="n">
-        <f aca="false">5/6</f>
-        <v>0.833333333333333</v>
+        <f aca="false">Cumhur!M4</f>
+        <v>0.703703703703704</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>5000</v>
+        <f aca="false">Cumhur!Q4</f>
+        <v>119.5</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>100</v>
@@ -376,35 +444,35 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <f aca="false">(A5+B5)/B5</f>
-        <v>1.76712328767123</v>
+        <v>1.79816395471776</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">1-$C$5</f>
-        <v>0.166666666666667</v>
+        <v>0.296296296296296</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">C5-B9/(A9-1)</f>
-        <v>0.616071428571429</v>
+        <v>0.332481357035505</v>
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">E5/D5*(0.7*F5)</f>
-        <v>3.5</v>
+        <v>0.08365</v>
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">$C$9*$D$9</f>
-        <v>2.15625</v>
+        <v>0.02781206551602</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">G5*E5/100</f>
-        <v>100</v>
+        <v>2.39</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(F9/E9)</f>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">(A9-1)*G9</f>
-        <v>35.2876712328767</v>
+        <v>67.8439361510096</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,7 +504,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +513,7 @@
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">B15*B16</f>
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,7 +522,7 @@
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(B17*C5)</f>
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,7 +531,7 @@
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^B18*(1-C9*D11*B5)^(B17-B18)</f>
-        <v>7392.77764778602</v>
+        <v>203.456266523231</v>
       </c>
     </row>
   </sheetData>
@@ -475,4 +543,5033 @@
     <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O106"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">C4/B4-$B$1</f>
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">IF(C4&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">IF(C4&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">D4*B4</f>
+        <v>33</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">SUM(F4:F116)</f>
+        <v>30</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">SUM(E32:E134)</f>
+        <v>54</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">L4/(L4+K4)</f>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">SUMIF(E4:E209,1,D4:D209)/L4</f>
+        <v>35.7777777777778</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">ABS(SUMIF(F4:F207,1,D4:D207)/K4)</f>
+        <v>49.4333333333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">C5/B5-$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">IF(C5&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">IF(C5&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">D5*B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <f aca="false">C6/B6-$B$1</f>
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">IF(C6&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">IF(C6&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">D6*B6</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">C7/B7-$B$1</f>
+        <v>38</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">IF(C7&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">IF(C7&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">D7*B7</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">C8/B8-$B$1</f>
+        <v>13</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">IF(C8&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">IF(C8&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">D8*B8</f>
+        <v>13</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <f aca="false">C9/B9-$B$1</f>
+        <v>15</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">IF(C9&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">IF(C9&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">D9*B9</f>
+        <v>15</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">STDEV(G4:G106)</f>
+        <v>45.0907784999334</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G106)</f>
+        <v>4.12038834951456</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">L9/K9</f>
+        <v>0.0913798449836178</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">C10/B10-$B$1</f>
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">IF(C10&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">IF(C10&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">D10*B10</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">C11/B11-$B$1</f>
+        <v>32</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">IF(C11&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">IF(C11&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">D11*B11</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <f aca="false">C12/B12-$B$1</f>
+        <v>57</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">IF(C12&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">IF(C12&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">D12*B12</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <f aca="false">C13/B13-$B$1</f>
+        <v>-8</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">IF(C13&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">IF(C13&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">D13*B13</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">C14/B14-$B$1</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">IF(C14&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">IF(C14&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">D14*B14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">C15/B15-$B$1</f>
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">IF(C15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">IF(C15&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">D15*B15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <f aca="false">C16/B16-$B$1</f>
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">IF(C16&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">IF(C16&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">D16*B16</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">C17/B17-$B$1</f>
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">IF(C17&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">IF(C17&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">D17*B17</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">C18/B18-$B$1</f>
+        <v>17</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">IF(C18&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">IF(C18&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">D18*B18</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">C19/B19-$B$1</f>
+        <v>17</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">IF(C19&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">IF(C19&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">D19*B19</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">C20/B20-$B$1</f>
+        <v>-2</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">IF(C20&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">IF(C20&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">D20*B20</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">C21/B21-$B$1</f>
+        <v>-12</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">IF(C21&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">IF(C21&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">D21*B21</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <f aca="false">C22/B22-$B$1</f>
+        <v>-13</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">IF(C22&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">IF(C22&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">D22*B22</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <f aca="false">C23/B23-$B$1</f>
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">IF(C23&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">IF(C23&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">D23*B23</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">C24/B24-$B$1</f>
+        <v>23</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">IF(C24&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">IF(C24&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">D24*B24</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <f aca="false">C25/B25-$B$1</f>
+        <v>-8</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">IF(C25&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">IF(C25&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">D25*B25</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <f aca="false">C26/B26-$B$1</f>
+        <v>-9</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">IF(C26&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">IF(C26&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">D26*B26</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <f aca="false">C27/B27-$B$1</f>
+        <v>-11</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">IF(C27&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">IF(C27&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">D27*B27</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <f aca="false">C28/B28-$B$1</f>
+        <v>-24</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">IF(C28&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">IF(C28&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">D28*B28</f>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <f aca="false">C29/B29-$B$1</f>
+        <v>-24</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">IF(C29&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">IF(C29&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">D29*B29</f>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>-22</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <f aca="false">C30/B30-$B$1</f>
+        <v>-26</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">IF(C30&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">IF(C30&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">D30*B30</f>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <f aca="false">C31/B31-$B$1</f>
+        <v>17</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">IF(C31&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">IF(C31&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">D31*B31</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <f aca="false">C32/B32-$B$1</f>
+        <v>23</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">IF(C32&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">IF(C32&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">D32*B32</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <f aca="false">C33/B33-$B$1</f>
+        <v>4</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">IF(C33&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">IF(C33&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">D33*B33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <f aca="false">C34/B34-$B$1</f>
+        <v>30</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">IF(C34&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">IF(C34&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">D34*B34</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <f aca="false">C35/B35-$B$1</f>
+        <v>16</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">IF(C35&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">IF(C35&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">D35*B35</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <f aca="false">C36/B36-$B$1</f>
+        <v>19</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">IF(C36&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">IF(C36&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">D36*B36</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <f aca="false">C37/B37-$B$1</f>
+        <v>24</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">IF(C37&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">IF(C37&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">D37*B37</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <f aca="false">C38/B38-$B$1</f>
+        <v>27</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">IF(C38&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">IF(C38&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">D38*B38</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <f aca="false">C39/B39-$B$1</f>
+        <v>-8</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">IF(C39&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">IF(C39&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">D39*B39</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <f aca="false">C40/B40-$B$1</f>
+        <v>-45</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">IF(C40&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">IF(C40&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">D40*B40</f>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <f aca="false">C41/B41-$B$1</f>
+        <v>-45</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">IF(C41&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">IF(C41&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">D41*B41</f>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <f aca="false">C42/B42-$B$1</f>
+        <v>-37</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">IF(C42&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <f aca="false">IF(C42&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">D42*B42</f>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>-28</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <f aca="false">C43/B43-$B$1</f>
+        <v>-32</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">IF(C43&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">IF(C43&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">D43*B43</f>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <f aca="false">C44/B44-$B$1</f>
+        <v>10</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">IF(C44&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">IF(C44&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">D44*B44</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <f aca="false">C45/B45-$B$1</f>
+        <v>15</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">IF(C45&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">IF(C45&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">D45*B45</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <f aca="false">C46/B46-$B$1</f>
+        <v>13</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">IF(C46&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">IF(C46&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">D46*B46</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>-66</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <f aca="false">C47/B47-$B$1</f>
+        <v>-70</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">IF(C47&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">IF(C47&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">D47*B47</f>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <f aca="false">C48/B48-$B$1</f>
+        <v>-57</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">IF(C48&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">IF(C48&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">D48*B48</f>
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <f aca="false">C49/B49-$B$1</f>
+        <v>-50</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">IF(C49&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">IF(C49&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">D49*B49</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <f aca="false">C50/B50-$B$1</f>
+        <v>-51</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">IF(C50&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">IF(C50&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">D50*B50</f>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <f aca="false">C51/B51-$B$1</f>
+        <v>-3</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">IF(C51&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">IF(C51&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">D51*B51</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <f aca="false">C52/B52-$B$1</f>
+        <v>-3</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">IF(C52&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">IF(C52&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">D52*B52</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <f aca="false">C53/B53-$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">IF(C53&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">IF(C53&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">D53*B53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <f aca="false">C54/B54-$B$1</f>
+        <v>-5</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">IF(C54&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">IF(C54&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">D54*B54</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <f aca="false">C55/B55-$B$1</f>
+        <v>22</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">IF(C55&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">IF(C55&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">D55*B55</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <f aca="false">C56/B56-$B$1</f>
+        <v>65</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">IF(C56&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">IF(C56&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">D56*B56</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <f aca="false">C57/B57-$B$1</f>
+        <v>20</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">IF(C57&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">IF(C57&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">D57*B57</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <f aca="false">C58/B58-$B$1</f>
+        <v>16</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <f aca="false">IF(C58&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <f aca="false">IF(C58&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">D58*B58</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <f aca="false">C59/B59-$B$1</f>
+        <v>-5</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">IF(C59&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <f aca="false">IF(C59&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">D59*B59</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <f aca="false">C60/B60-$B$1</f>
+        <v>44</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <f aca="false">IF(C60&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <f aca="false">IF(C60&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">D60*B60</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <f aca="false">C61/B61-$B$1</f>
+        <v>40</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">IF(C61&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <f aca="false">IF(C61&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">D61*B61</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <f aca="false">C62/B62-$B$1</f>
+        <v>41</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <f aca="false">IF(C62&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <f aca="false">IF(C62&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <f aca="false">D62*B62</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <f aca="false">C63/B63-$B$1</f>
+        <v>32</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <f aca="false">IF(C63&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <f aca="false">IF(C63&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <f aca="false">D63*B63</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <f aca="false">C64/B64-$B$1</f>
+        <v>45</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <f aca="false">IF(C64&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <f aca="false">IF(C64&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">D64*B64</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <f aca="false">C65/B65-$B$1</f>
+        <v>50</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <f aca="false">IF(C65&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <f aca="false">IF(C65&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <f aca="false">D65*B65</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <f aca="false">C66/B66-$B$1</f>
+        <v>29</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <f aca="false">IF(C66&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <f aca="false">IF(C66&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <f aca="false">D66*B66</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>-32</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <f aca="false">C67/B67-$B$1</f>
+        <v>-36</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <f aca="false">IF(C67&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <f aca="false">IF(C67&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <f aca="false">D67*B67</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <f aca="false">C68/B68-$B$1</f>
+        <v>-48</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">IF(C68&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <f aca="false">IF(C68&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <f aca="false">D68*B68</f>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>-34</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <f aca="false">C69/B69-$B$1</f>
+        <v>-38</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <f aca="false">IF(C69&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <f aca="false">IF(C69&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <f aca="false">D69*B69</f>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>-22</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <f aca="false">C70/B70-$B$1</f>
+        <v>-26</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <f aca="false">IF(C70&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <f aca="false">IF(C70&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <f aca="false">D70*B70</f>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <f aca="false">C71/B71-$B$1</f>
+        <v>59</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <f aca="false">IF(C71&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <f aca="false">IF(C71&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <f aca="false">D71*B71</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <f aca="false">C72/B72-$B$1</f>
+        <v>53</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <f aca="false">IF(C72&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <f aca="false">IF(C72&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <f aca="false">D72*B72</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <f aca="false">C73/B73-$B$1</f>
+        <v>54</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <f aca="false">IF(C73&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <f aca="false">IF(C73&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <f aca="false">D73*B73</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <f aca="false">C74/B74-$B$1</f>
+        <v>52</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <f aca="false">IF(C74&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <f aca="false">IF(C74&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <f aca="false">D74*B74</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <f aca="false">C75/B75-$B$1</f>
+        <v>58</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <f aca="false">IF(C75&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <f aca="false">IF(C75&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <f aca="false">D75*B75</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <f aca="false">C76/B76-$B$1</f>
+        <v>59</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <f aca="false">IF(C76&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <f aca="false">IF(C76&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <f aca="false">D76*B76</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <f aca="false">C77/B77-$B$1</f>
+        <v>58</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <f aca="false">IF(C77&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <f aca="false">IF(C77&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <f aca="false">D77*B77</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <f aca="false">C78/B78-$B$1</f>
+        <v>66</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <f aca="false">IF(C78&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <f aca="false">IF(C78&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <f aca="false">D78*B78</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <f aca="false">C79/B79-$B$1</f>
+        <v>13</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <f aca="false">IF(C79&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <f aca="false">IF(C79&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <f aca="false">D79*B79</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <f aca="false">C80/B80-$B$1</f>
+        <v>18</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <f aca="false">IF(C80&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <f aca="false">IF(C80&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <f aca="false">D80*B80</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <f aca="false">C81/B81-$B$1</f>
+        <v>13</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <f aca="false">IF(C81&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <f aca="false">IF(C81&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <f aca="false">D81*B81</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <f aca="false">C82/B82-$B$1</f>
+        <v>32</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <f aca="false">IF(C82&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <f aca="false">IF(C82&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <f aca="false">D82*B82</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <f aca="false">C83/B83-$B$1</f>
+        <v>55</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <f aca="false">IF(C83&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <f aca="false">IF(C83&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <f aca="false">D83*B83</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <f aca="false">C84/B84-$B$1</f>
+        <v>65</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <f aca="false">IF(C84&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <f aca="false">IF(C84&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <f aca="false">D84*B84</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <f aca="false">C85/B85-$B$1</f>
+        <v>43</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <f aca="false">IF(C85&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <f aca="false">IF(C85&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <f aca="false">D85*B85</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <f aca="false">C86/B86-$B$1</f>
+        <v>20</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <f aca="false">IF(C86&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <f aca="false">IF(C86&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <f aca="false">D86*B86</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <f aca="false">C87/B87-$B$1</f>
+        <v>21</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <f aca="false">IF(C87&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <f aca="false">IF(C87&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <f aca="false">D87*B87</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <f aca="false">C88/B88-$B$1</f>
+        <v>8</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <f aca="false">IF(C88&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <f aca="false">IF(C88&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <f aca="false">D88*B88</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <f aca="false">C89/B89-$B$1</f>
+        <v>17</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <f aca="false">IF(C89&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <f aca="false">IF(C89&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <f aca="false">D89*B89</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <f aca="false">C90/B90-$B$1</f>
+        <v>19</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <f aca="false">IF(C90&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <f aca="false">IF(C90&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <f aca="false">D90*B90</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <f aca="false">C91/B91-$B$1</f>
+        <v>16</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <f aca="false">IF(C91&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <f aca="false">IF(C91&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <f aca="false">D91*B91</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <f aca="false">C92/B92-$B$1</f>
+        <v>12</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <f aca="false">IF(C92&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <f aca="false">IF(C92&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <f aca="false">D92*B92</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>-99</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <f aca="false">C93/B93-$B$1</f>
+        <v>-103</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">IF(C93&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <f aca="false">IF(C93&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <f aca="false">D93*B93</f>
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <f aca="false">C94/B94-$B$1</f>
+        <v>46</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <f aca="false">IF(C94&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <f aca="false">IF(C94&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <f aca="false">D94*B94</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <f aca="false">C95/B95-$B$1</f>
+        <v>22</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <f aca="false">IF(C95&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <f aca="false">IF(C95&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <f aca="false">D95*B95</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <f aca="false">C96/B96-$B$1</f>
+        <v>19</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <f aca="false">IF(C96&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <f aca="false">IF(C96&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <f aca="false">D96*B96</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <f aca="false">C97/B97-$B$1</f>
+        <v>20</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <f aca="false">IF(C97&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <f aca="false">IF(C97&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <f aca="false">D97*B97</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <f aca="false">C98/B98-$B$1</f>
+        <v>16</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <f aca="false">IF(C98&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <f aca="false">IF(C98&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <f aca="false">D98*B98</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>-128</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <f aca="false">C99/B99-$B$1</f>
+        <v>-132</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <f aca="false">IF(C99&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <f aca="false">IF(C99&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <f aca="false">D99*B99</f>
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>-139</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <f aca="false">C100/B100-$B$1</f>
+        <v>-143</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <f aca="false">IF(C100&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <f aca="false">IF(C100&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <f aca="false">D100*B100</f>
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>-134</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <f aca="false">C101/B101-$B$1</f>
+        <v>-138</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <f aca="false">IF(C101&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <f aca="false">IF(C101&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <f aca="false">D101*B101</f>
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>-136</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <f aca="false">C102/B102-$B$1</f>
+        <v>-140</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <f aca="false">IF(C102&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <f aca="false">IF(C102&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <f aca="false">D102*B102</f>
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>-135</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <f aca="false">C103/B103-$B$1</f>
+        <v>-139</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <f aca="false">IF(C103&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <f aca="false">IF(C103&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <f aca="false">D103*B103</f>
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <f aca="false">C104/B104-$B$1</f>
+        <v>21</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">IF(C104&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <f aca="false">IF(C104&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <f aca="false">D104*B104</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <f aca="false">C105/B105-$B$1</f>
+        <v>11</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <f aca="false">IF(C105&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <f aca="false">IF(C105&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <f aca="false">D105*B105</f>
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D106" s="3" t="n">
+        <f aca="false">C106/B106-$B$1</f>
+        <v>9</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <f aca="false">IF(C106&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <f aca="false">IF(C106&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <f aca="false">D106*B106</f>
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">C4/B4-$B$1</f>
+        <v>3.31</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">IF(C4&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">IF(C4&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">D4*B4</f>
+        <v>0.662</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">SUM(F4:F117)</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">SUM(E4:E107)</f>
+        <v>24</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">L4/(L4+K4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">SUMIF(E4:E210,1,D4:D210)/L4</f>
+        <v>24.7823214285714</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">ABS(SUMIF(F4:F208,1,D4:D208)/K4)</f>
+        <v>30.6137012987013</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">SUM(G4:G58)</f>
+        <v>66.5514</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">B2+P4</f>
+        <v>466.5514</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">C5/B5-$B$1</f>
+        <v>19.31</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">IF(C5&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">IF(C5&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">D5*B5</f>
+        <v>0.1931</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <f aca="false">C6/B6-$B$1</f>
+        <v>4.81</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">IF(C6&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">IF(C6&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">D6*B6</f>
+        <v>0.0962</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">C7/B7-$B$1</f>
+        <v>18.31</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">IF(C7&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">IF(C7&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">D7*B7</f>
+        <v>0.1831</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">C8/B8-$B$1</f>
+        <v>18.56</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">IF(C8&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">IF(C8&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">D8*B8</f>
+        <v>0.7424</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <f aca="false">C9/B9-$B$1</f>
+        <v>-46.69</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">IF(C9&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">IF(C9&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">D9*B9</f>
+        <v>-1.8676</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">STDEV(G4:G107)</f>
+        <v>7.47435932123034</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G107)</f>
+        <v>2.07973125</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">L9/K9</f>
+        <v>0.278248764960053</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">C10/B10-$B$1</f>
+        <v>-25.44</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">IF(C10&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">IF(C10&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">D10*B10</f>
+        <v>-1.0176</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">C11/B11-$B$1</f>
+        <v>-21.19</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">IF(C11&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">IF(C11&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">D11*B11</f>
+        <v>-0.8476</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <f aca="false">C12/B12-$B$1</f>
+        <v>-53.44</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">IF(C12&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">IF(C12&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">D12*B12</f>
+        <v>-2.1376</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <f aca="false">C13/B13-$B$1</f>
+        <v>41.31</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">IF(C13&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">IF(C13&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">D13*B13</f>
+        <v>2.0655</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">C14/B14-$B$1</f>
+        <v>19.31</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">IF(C14&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">IF(C14&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">D14*B14</f>
+        <v>0.9655</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">C15/B15-$B$1</f>
+        <v>-23.69</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">IF(C15&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">IF(C15&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">D15*B15</f>
+        <v>-1.1845</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <f aca="false">C16/B16-$B$1</f>
+        <v>-25.69</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">IF(C16&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">IF(C16&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">D16*B16</f>
+        <v>-1.2845</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">C17/B17-$B$1</f>
+        <v>20.31</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">IF(C17&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">IF(C17&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">D17*B17</f>
+        <v>3.0465</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">C18/B18-$B$1</f>
+        <v>15.4528571428571</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">IF(C18&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">IF(C18&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">D18*B18</f>
+        <v>5.4085</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">C19/B19-$B$1</f>
+        <v>21.71</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">IF(C19&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">IF(C19&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">D19*B19</f>
+        <v>5.4275</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">C20/B20-$B$1</f>
+        <v>17.81</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">IF(C20&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">IF(C20&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">D20*B20</f>
+        <v>1.781</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">C21/B21-$B$1</f>
+        <v>86.4528571428572</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">IF(C21&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">IF(C21&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">D21*B21</f>
+        <v>30.2585</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <f aca="false">C22/B22-$B$1</f>
+        <v>56.31</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">IF(C22&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">IF(C22&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">D22*B22</f>
+        <v>2.8155</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <f aca="false">C23/B23-$B$1</f>
+        <v>31.31</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">IF(C23&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">IF(C23&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">D23*B23</f>
+        <v>1.5655</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">C24/B24-$B$1</f>
+        <v>15.56</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">IF(C24&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">IF(C24&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">D24*B24</f>
+        <v>3.112</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <f aca="false">C25/B25-$B$1</f>
+        <v>8.81</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">IF(C25&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">IF(C25&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">D25*B25</f>
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <f aca="false">C26/B26-$B$1</f>
+        <v>19.31</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">IF(C26&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">IF(C26&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">D26*B26</f>
+        <v>0.9655</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <f aca="false">C27/B27-$B$1</f>
+        <v>67.81</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">IF(C27&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">IF(C27&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">D27*B27</f>
+        <v>6.781</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <f aca="false">C28/B28-$B$1</f>
+        <v>-33.5081818181818</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">IF(C28&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">IF(C28&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">D28*B28</f>
+        <v>-18.4295</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <f aca="false">C29/B29-$B$1</f>
+        <v>19.96</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">IF(C29&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">IF(C29&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">D29*B29</f>
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <f aca="false">C30/B30-$B$1</f>
+        <v>-15.2614285714286</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">IF(C30&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">IF(C30&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">D30*B30</f>
+        <v>-5.3415</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <f aca="false">C31/B31-$B$1</f>
+        <v>19.31</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">IF(C31&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">IF(C31&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">D31*B31</f>
+        <v>1.931</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <f aca="false">C32/B32-$B$1</f>
+        <v>17.31</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">IF(C32&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">IF(C32&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">D32*B32</f>
+        <v>2.5965</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <f aca="false">C33/B33-$B$1</f>
+        <v>22.31</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">IF(C33&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">IF(C33&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">D33*B33</f>
+        <v>3.3465</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <f aca="false">C34/B34-$B$1</f>
+        <v>12.81</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">IF(C34&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">IF(C34&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">D34*B34</f>
+        <v>1.281</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <f aca="false">C35/B35-$B$1</f>
+        <v>17.31</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">IF(C35&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">IF(C35&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">D35*B35</f>
+        <v>2.5965</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">C4/B4-$B$1</f>
+        <v>-35</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">IF(C4&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">IF(C4&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">D4*B4</f>
+        <v>-0.35</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">SUM(F4:F117)</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">SUM(E4:E107)</f>
+        <v>19</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">L4/(L4+K4)</f>
+        <v>0.703703703703704</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">SUMIF(E4:E210,1,D4:D210)/L4</f>
+        <v>203.631578947368</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">ABS(SUMIF(F4:F208,1,D4:D208)/K4)</f>
+        <v>255.125</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">SUM(G4:G58)</f>
+        <v>19.5</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">B2+P4</f>
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">C5/B5-$B$1</f>
+        <v>327</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">IF(C5&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">IF(C5&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">D5*B5</f>
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <f aca="false">C6/B6-$B$1</f>
+        <v>-307</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">IF(C6&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">IF(C6&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">D6*B6</f>
+        <v>-3.07</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">C7/B7-$B$1</f>
+        <v>-417</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">IF(C7&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">IF(C7&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">D7*B7</f>
+        <v>-4.17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">C8/B8-$B$1</f>
+        <v>122</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">IF(C8&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">IF(C8&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">D8*B8</f>
+        <v>2.44</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <f aca="false">C9/B9-$B$1</f>
+        <v>28</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">IF(C9&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">IF(C9&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">D9*B9</f>
+        <v>0.28</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">STDEV(G4:G107)</f>
+        <v>2.63834495518765</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G107)</f>
+        <v>0.722222222222222</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">L9/K9</f>
+        <v>0.273740634560372</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">C10/B10-$B$1</f>
+        <v>-58</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">IF(C10&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">IF(C10&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">D10*B10</f>
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">C11/B11-$B$1</f>
+        <v>60</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">IF(C11&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">IF(C11&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">D11*B11</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <f aca="false">C12/B12-$B$1</f>
+        <v>23</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">IF(C12&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">IF(C12&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">D12*B12</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <f aca="false">C13/B13-$B$1</f>
+        <v>-328</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">IF(C13&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">IF(C13&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">D13*B13</f>
+        <v>-3.28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">C14/B14-$B$1</f>
+        <v>482</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">IF(C14&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">IF(C14&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">D14*B14</f>
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">C15/B15-$B$1</f>
+        <v>300</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">IF(C15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">IF(C15&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">D15*B15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <f aca="false">C16/B16-$B$1</f>
+        <v>-228</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">IF(C16&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">IF(C16&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">D16*B16</f>
+        <v>-2.28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-4.63</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">C17/B17-$B$1</f>
+        <v>-463</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">IF(C17&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">IF(C17&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">D17*B17</f>
+        <v>-4.63</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">C18/B18-$B$1</f>
+        <v>344</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">IF(C18&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">IF(C18&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">D18*B18</f>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">C19/B19-$B$1</f>
+        <v>150</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">IF(C19&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">IF(C19&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">D19*B19</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">C20/B20-$B$1</f>
+        <v>251</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">IF(C20&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">IF(C20&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">D20*B20</f>
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">C21/B21-$B$1</f>
+        <v>254</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">IF(C21&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">IF(C21&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">D21*B21</f>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <f aca="false">C22/B22-$B$1</f>
+        <v>178</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">IF(C22&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">IF(C22&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">D22*B22</f>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <f aca="false">C23/B23-$B$1</f>
+        <v>200</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">IF(C23&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">IF(C23&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">D23*B23</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">C24/B24-$B$1</f>
+        <v>573</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">IF(C24&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">IF(C24&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">D24*B24</f>
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <f aca="false">C25/B25-$B$1</f>
+        <v>38</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">IF(C25&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">IF(C25&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">D25*B25</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <f aca="false">C26/B26-$B$1</f>
+        <v>148</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">IF(C26&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">IF(C26&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">D26*B26</f>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <f aca="false">C27/B27-$B$1</f>
+        <v>144</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">IF(C27&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">IF(C27&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">D27*B27</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <f aca="false">C28/B28-$B$1</f>
+        <v>236</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">IF(C28&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">IF(C28&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">D28*B28</f>
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <f aca="false">C29/B29-$B$1</f>
+        <v>11</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">IF(C29&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">IF(C29&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">D29*B29</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <f aca="false">C30/B30-$B$1</f>
+        <v>-205</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">IF(C30&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">IF(C30&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">D30*B30</f>
+        <v>-2.05</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/kelly.xlsx
+++ b/kelly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Caga" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Cumhur" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t xml:space="preserve">Kelly Kriterine Gore Lot ve Para Yonetimi</t>
   </si>
@@ -97,7 +97,25 @@
     <t xml:space="preserve">Kazanilan Pozisyon </t>
   </si>
   <si>
+    <t xml:space="preserve">Bugun Beklenen Kazanc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donemsel Bakiye Farki</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sermaye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabit lot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunluk Beklenen Kazanc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donem Sonu Bakiye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortalama Sabit lot </t>
   </si>
   <si>
     <t xml:space="preserve">Hacim Komisyon: </t>
@@ -156,20 +174,28 @@
   <si>
     <t xml:space="preserve">Bakiye</t>
   </si>
+  <si>
+    <t xml:space="preserve">Nazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortalama lot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0.00;\-#\ ##0.00;0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -191,9 +217,17 @@
       <color rgb="FFC9211E"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +238,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF7F7F7"/>
       </patternFill>
     </fill>
   </fills>
@@ -241,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +302,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -287,7 +349,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF7F7F7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -335,13 +397,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.24"/>
@@ -385,23 +447,23 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <f aca="false">Cumhur!N4</f>
-        <v>203.631578947368</v>
+        <f aca="false">Caga!N4</f>
+        <v>17.8392857142857</v>
       </c>
       <c r="B5" s="2" t="n">
-        <f aca="false">Cumhur!O4</f>
-        <v>255.125</v>
+        <f aca="false">Caga!O4</f>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="n">
-        <f aca="false">Cumhur!M4</f>
-        <v>0.703703703703704</v>
+        <f aca="false">Caga!M4</f>
+        <v>0.875</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="2" t="n">
-        <f aca="false">Cumhur!Q4</f>
-        <v>119.5</v>
+        <f aca="false">Caga!R4</f>
+        <v>405.68</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>100</v>
@@ -444,35 +506,35 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <f aca="false">(A5+B5)/B5</f>
-        <v>1.79816395471776</v>
+        <v>1.40543831168831</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">1-$C$5</f>
-        <v>0.296296296296296</v>
+        <v>0.125</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">C5-B9/(A9-1)</f>
-        <v>0.332481357035505</v>
+        <v>0.566691691691692</v>
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">E5/D5*(0.7*F5)</f>
-        <v>0.08365</v>
+        <v>0.283976</v>
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">$C$9*$D$9</f>
-        <v>0.02781206551602</v>
+        <v>0.16092683983984</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">G5*E5/100</f>
-        <v>2.39</v>
+        <v>8.1136</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(F9/E9)</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">(A9-1)*G9</f>
-        <v>67.8439361510096</v>
+        <v>20.2719155844156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,7 +566,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,7 +575,7 @@
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">B15*B16</f>
-        <v>44</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,7 +584,11 @@
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(B17*C5)</f>
-        <v>30</v>
+        <v>134</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">B16*C5</f>
+        <v>6.125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,8 +596,97 @@
         <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
+        <f aca="false">E5*(1+C9*D11*A5)^C18*(1-C9*D11*B5)^(B16-C18)-E5</f>
+        <v>11.4295004575324</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">B21-E5</f>
+        <v>328.181357462611</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^B18*(1-C9*D11*B5)^(B17-B18)</f>
-        <v>203.456266523231</v>
+        <v>733.861357462611</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">(A5*C5-B5*(1-C5))*B16*B24</f>
+        <v>0.70765625</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">B25*B15</f>
+        <v>15.5684375</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">E5+B26</f>
+        <v>421.2484375</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(Caga!O9,0.01)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">B30*(A5*C5-(1-C5)*B5)*B16</f>
+        <v>2.830625</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">B15*B31</f>
+        <v>62.27375</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">E5+B32</f>
+        <v>467.95375</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +711,7 @@
       <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.38"/>
@@ -568,7 +723,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>4</v>
@@ -576,40 +731,40 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,13 +922,13 @@
         <v>13</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,13 +3605,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.16"/>
@@ -3466,15 +3621,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>400</v>
@@ -3482,116 +3637,121 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1.4</v>
+      <c r="C4" s="5" t="n">
+        <f aca="false">-B2*Sheet1!G5/100</f>
+        <v>-8</v>
       </c>
       <c r="D4" s="3" t="n">
         <f aca="false">C4/B4-$B$1</f>
-        <v>3.31</v>
+        <v>-44</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(C4&gt;0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">IF(C4&lt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">D4*B4</f>
-        <v>0.662</v>
+        <v>-8.8</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">SUM(F4:F117)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">SUM(E4:E107)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">L4/(L4+K4)</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">SUMIF(E4:E210,1,D4:D210)/L4</f>
-        <v>24.7823214285714</v>
+        <v>17.8392857142857</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">ABS(SUMIF(F4:F208,1,D4:D208)/K4)</f>
-        <v>30.6137012987013</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">SUM(G4:G58)</f>
-        <v>66.5514</v>
+        <v>-3.12</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">B2+P4</f>
-        <v>466.5514</v>
+        <v>396.88</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">Q4-G4</f>
+        <v>405.68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.23</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.49</v>
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">C5/B5-$B$1</f>
-        <v>19.31</v>
+        <v>20.5</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(C5&gt;0,1,0)</f>
@@ -3603,22 +3763,22 @@
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">D5*B5</f>
-        <v>0.1931</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.17</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0.18</v>
       </c>
       <c r="D6" s="3" t="n">
         <f aca="false">C6/B6-$B$1</f>
-        <v>4.81</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(C6&gt;0,1,0)</f>
@@ -3630,22 +3790,22 @@
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">D6*B6</f>
-        <v>0.0962</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.22</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>3.58</v>
       </c>
       <c r="D7" s="3" t="n">
         <f aca="false">C7/B7-$B$1</f>
-        <v>18.31</v>
+        <v>18.375</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(C7&gt;0,1,0)</f>
@@ -3657,22 +3817,22 @@
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">D7*B7</f>
-        <v>0.1831</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0.89</v>
+      <c r="C8" s="7" t="n">
+        <v>1.04</v>
       </c>
       <c r="D8" s="3" t="n">
         <f aca="false">C8/B8-$B$1</f>
-        <v>18.56</v>
+        <v>22</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(C8&gt;0,1,0)</f>
@@ -3684,758 +3844,189 @@
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">D8*B8</f>
-        <v>0.7424</v>
+        <v>0.88</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>-1.72</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.5</v>
       </c>
       <c r="D9" s="3" t="n">
         <f aca="false">C9/B9-$B$1</f>
-        <v>-46.69</v>
+        <v>21</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(C9&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">IF(C9&lt;0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">D9*B9</f>
-        <v>-1.8676</v>
+        <v>0.42</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">STDEV(G4:G107)</f>
-        <v>7.47435932123034</v>
+        <v>3.51634144287172</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">AVERAGE(G4:G107)</f>
-        <v>2.07973125</v>
+        <v>-0.39</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">L9/K9</f>
-        <v>0.278248764960053</v>
+        <v>-0.110910731035691</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">AVERAGE(B5:B11)</f>
+        <v>0.0457142857142857</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>-0.87</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>0.21</v>
       </c>
       <c r="D10" s="3" t="n">
         <f aca="false">C10/B10-$B$1</f>
-        <v>-25.44</v>
+        <v>17</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">IF(C10&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">IF(C10&lt;0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">D10*B10</f>
-        <v>-1.0176</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>-0.7</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.96</v>
       </c>
       <c r="D11" s="3" t="n">
         <f aca="false">C11/B11-$B$1</f>
-        <v>-21.19</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">IF(C11&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">IF(C11&lt;0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">D11*B11</f>
-        <v>-0.8476</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <f aca="false">C12/B12-$B$1</f>
-        <v>-53.44</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">IF(C12&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">IF(C12&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">D12*B12</f>
-        <v>-2.1376</v>
-      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <f aca="false">C13/B13-$B$1</f>
-        <v>41.31</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">IF(C13&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">IF(C13&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">D13*B13</f>
-        <v>2.0655</v>
-      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <f aca="false">C14/B14-$B$1</f>
-        <v>19.31</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">IF(C14&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">IF(C14&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">D14*B14</f>
-        <v>0.9655</v>
-      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <f aca="false">C15/B15-$B$1</f>
-        <v>-23.69</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">IF(C15&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <f aca="false">IF(C15&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">D15*B15</f>
-        <v>-1.1845</v>
-      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <f aca="false">C16/B16-$B$1</f>
-        <v>-25.69</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">IF(C16&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">IF(C16&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">D16*B16</f>
-        <v>-1.2845</v>
-      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <f aca="false">C17/B17-$B$1</f>
-        <v>20.31</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <f aca="false">IF(C17&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <f aca="false">IF(C17&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false">D17*B17</f>
-        <v>3.0465</v>
-      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <f aca="false">C18/B18-$B$1</f>
-        <v>15.4528571428571</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">IF(C18&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">IF(C18&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">D18*B18</f>
-        <v>5.4085</v>
-      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <f aca="false">C19/B19-$B$1</f>
-        <v>21.71</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <f aca="false">IF(C19&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">IF(C19&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">D19*B19</f>
-        <v>5.4275</v>
-      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <f aca="false">C20/B20-$B$1</f>
-        <v>17.81</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <f aca="false">IF(C20&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <f aca="false">IF(C20&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <f aca="false">D20*B20</f>
-        <v>1.781</v>
-      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <f aca="false">C21/B21-$B$1</f>
-        <v>86.4528571428572</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">IF(C21&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <f aca="false">IF(C21&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">D21*B21</f>
-        <v>30.2585</v>
-      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <f aca="false">C22/B22-$B$1</f>
-        <v>56.31</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">IF(C22&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <f aca="false">IF(C22&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">D22*B22</f>
-        <v>2.8155</v>
-      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <f aca="false">C23/B23-$B$1</f>
-        <v>31.31</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">IF(C23&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <f aca="false">IF(C23&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">D23*B23</f>
-        <v>1.5655</v>
-      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <f aca="false">C24/B24-$B$1</f>
-        <v>15.56</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">IF(C24&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">IF(C24&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">D24*B24</f>
-        <v>3.112</v>
-      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <f aca="false">C25/B25-$B$1</f>
-        <v>8.81</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">IF(C25&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <f aca="false">IF(C25&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <f aca="false">D25*B25</f>
-        <v>0.881</v>
-      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <f aca="false">C26/B26-$B$1</f>
-        <v>19.31</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">IF(C26&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">IF(C26&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false">D26*B26</f>
-        <v>0.9655</v>
-      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <f aca="false">C27/B27-$B$1</f>
-        <v>67.81</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">IF(C27&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">IF(C27&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <f aca="false">D27*B27</f>
-        <v>6.781</v>
-      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <f aca="false">C28/B28-$B$1</f>
-        <v>-33.5081818181818</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <f aca="false">IF(C28&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">IF(C28&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false">D28*B28</f>
-        <v>-18.4295</v>
-      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <f aca="false">C29/B29-$B$1</f>
-        <v>19.96</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <f aca="false">IF(C29&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <f aca="false">IF(C29&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <f aca="false">D29*B29</f>
-        <v>19.96</v>
-      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>-4.05</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <f aca="false">C30/B30-$B$1</f>
-        <v>-15.2614285714286</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <f aca="false">IF(C30&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <f aca="false">IF(C30&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <f aca="false">D30*B30</f>
-        <v>-5.3415</v>
-      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <f aca="false">C31/B31-$B$1</f>
-        <v>19.31</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <f aca="false">IF(C31&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <f aca="false">IF(C31&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <f aca="false">D31*B31</f>
-        <v>1.931</v>
-      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <f aca="false">C32/B32-$B$1</f>
-        <v>17.31</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <f aca="false">IF(C32&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <f aca="false">IF(C32&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <f aca="false">D32*B32</f>
-        <v>2.5965</v>
-      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <f aca="false">C33/B33-$B$1</f>
-        <v>22.31</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <f aca="false">IF(C33&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <f aca="false">IF(C33&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">D33*B33</f>
-        <v>3.3465</v>
-      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <f aca="false">C34/B34-$B$1</f>
-        <v>12.81</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <f aca="false">IF(C34&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <f aca="false">IF(C34&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <f aca="false">D34*B34</f>
-        <v>1.281</v>
-      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <f aca="false">C35/B35-$B$1</f>
-        <v>17.31</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <f aca="false">IF(C35&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <f aca="false">IF(C35&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <f aca="false">D35*B35</f>
-        <v>2.5965</v>
-      </c>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="3"/>
@@ -4671,15 +4262,15 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -4687,7 +4278,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>100</v>
@@ -4695,46 +4286,46 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,13 +4491,13 @@
         <v>2.44</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/kelly.xlsx
+++ b/kelly.xlsx
@@ -400,10 +400,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.24"/>
@@ -448,22 +448,22 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <f aca="false">Caga!N4</f>
-        <v>17.8392857142857</v>
+        <v>17.085</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">Caga!O4</f>
-        <v>44</v>
+        <v>91.58</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">Caga!M4</f>
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="2" t="n">
-        <f aca="false">Caga!R4</f>
-        <v>405.68</v>
+        <f aca="false">Caga!Q4</f>
+        <v>401.5322</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>100</v>
@@ -506,35 +506,35 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <f aca="false">(A5+B5)/B5</f>
-        <v>1.40543831168831</v>
+        <v>1.18655820048045</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">1-$C$5</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">C5-B9/(A9-1)</f>
-        <v>0.566691691691692</v>
+        <v>0.363974246414984</v>
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">E5/D5*(0.7*F5)</f>
-        <v>0.283976</v>
+        <v>0.28107254</v>
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">$C$9*$D$9</f>
-        <v>0.16092683983984</v>
+        <v>0.102303165934445</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">G5*E5/100</f>
-        <v>8.1136</v>
+        <v>8.030644</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(F9/E9)</f>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">(A9-1)*G9</f>
-        <v>20.2719155844156</v>
+        <v>14.5515396374754</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,11 +584,11 @@
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(B17*C5)</f>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">B16*C5</f>
-        <v>6.125</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +597,7 @@
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^C18*(1-C9*D11*B5)^(B16-C18)-E5</f>
-        <v>11.4295004575324</v>
+        <v>4.37525134881247</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +606,7 @@
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">B21-E5</f>
-        <v>328.181357462611</v>
+        <v>99.6350584961886</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,7 +615,7 @@
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^B18*(1-C9*D11*B5)^(B17-B18)</f>
-        <v>733.861357462611</v>
+        <v>501.167258496189</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,7 +632,7 @@
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">(A5*C5-B5*(1-C5))*B16*B24</f>
-        <v>0.70765625</v>
+        <v>0.435295</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +641,7 @@
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">B25*B15</f>
-        <v>15.5684375</v>
+        <v>9.57649000000001</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +650,7 @@
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">E5+B26</f>
-        <v>421.2484375</v>
+        <v>411.10869</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(Caga!O9,0.01)</f>
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +668,7 @@
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">B30*(A5*C5-(1-C5)*B5)*B16</f>
-        <v>2.830625</v>
+        <v>3.48236</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +677,7 @@
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">B15*B31</f>
-        <v>62.27375</v>
+        <v>76.6119200000001</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +686,7 @@
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">E5+B32</f>
-        <v>467.95375</v>
+        <v>478.14412</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
       <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.38"/>
@@ -3607,11 +3607,11 @@
   </sheetPr>
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.16"/>
@@ -3624,7 +3624,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>4</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="D4" s="3" t="n">
         <f aca="false">C4/B4-$B$1</f>
-        <v>-44</v>
+        <v>-43.79</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">IF(C4&gt;0,1,0)</f>
@@ -3704,39 +3704,39 @@
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">D4*B4</f>
-        <v>-8.8</v>
+        <v>-8.758</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">SUM(F4:F117)</f>
+        <f aca="false">SUM(F5:F118)</f>
         <v>1</v>
       </c>
       <c r="L4" s="0" t="n">
-        <f aca="false">SUM(E4:E107)</f>
-        <v>7</v>
+        <f aca="false">SUM(E5:E108)</f>
+        <v>9</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">L4/(L4+K4)</f>
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="N4" s="0" t="n">
-        <f aca="false">SUMIF(E4:E210,1,D4:D210)/L4</f>
-        <v>17.8392857142857</v>
+        <f aca="false">SUMIF(E5:E211,1,D5:D211)/L4</f>
+        <v>17.085</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">ABS(SUMIF(F4:F208,1,D4:D208)/K4)</f>
-        <v>44</v>
+        <v>91.58</v>
       </c>
       <c r="P4" s="0" t="n">
-        <f aca="false">SUM(G4:G58)</f>
-        <v>-3.12</v>
+        <f aca="false">SUM(G5:G59)</f>
+        <v>1.5322</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">B2+P4</f>
-        <v>396.88</v>
+        <v>401.5322</v>
       </c>
       <c r="R4" s="0" t="n">
         <f aca="false">Q4-G4</f>
-        <v>405.68</v>
+        <v>410.2902</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">C5/B5-$B$1</f>
-        <v>20.5</v>
+        <v>20.71</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">IF(C5&gt;0,1,0)</f>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">D5*B5</f>
-        <v>0.41</v>
+        <v>0.4142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="D6" s="3" t="n">
         <f aca="false">C6/B6-$B$1</f>
-        <v>14</v>
+        <v>14.21</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">IF(C6&gt;0,1,0)</f>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">D6*B6</f>
-        <v>0.14</v>
+        <v>0.1421</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="D7" s="3" t="n">
         <f aca="false">C7/B7-$B$1</f>
-        <v>18.375</v>
+        <v>18.585</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">IF(C7&gt;0,1,0)</f>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">D7*B7</f>
-        <v>2.94</v>
+        <v>2.9736</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D8" s="3" t="n">
         <f aca="false">C8/B8-$B$1</f>
-        <v>22</v>
+        <v>22.21</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">IF(C8&gt;0,1,0)</f>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">D8*B8</f>
-        <v>0.88</v>
+        <v>0.8884</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>44</v>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D9" s="3" t="n">
         <f aca="false">C9/B9-$B$1</f>
-        <v>21</v>
+        <v>21.21</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">IF(C9&gt;0,1,0)</f>
@@ -3883,23 +3883,23 @@
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">D9*B9</f>
-        <v>0.42</v>
+        <v>0.4242</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">STDEV(G4:G107)</f>
-        <v>3.51634144287172</v>
+        <v>4.08380191499405</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">AVERAGE(G4:G107)</f>
-        <v>-0.39</v>
+        <v>-0.656890909090909</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">L9/K9</f>
-        <v>-0.110910731035691</v>
+        <v>-0.160852784430869</v>
       </c>
       <c r="O9" s="0" t="n">
-        <f aca="false">AVERAGE(B5:B11)</f>
-        <v>0.0457142857142857</v>
+        <f aca="false">AVERAGE(B5:B43)</f>
+        <v>0.082</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="D10" s="3" t="n">
         <f aca="false">C10/B10-$B$1</f>
-        <v>17</v>
+        <v>17.21</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">IF(C10&gt;0,1,0)</f>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">D10*B10</f>
-        <v>0.17</v>
+        <v>0.1721</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="D11" s="3" t="n">
         <f aca="false">C11/B11-$B$1</f>
-        <v>12</v>
+        <v>12.21</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">IF(C11&gt;0,1,0)</f>
@@ -3953,17 +3953,89 @@
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">D11*B11</f>
-        <v>0.72</v>
+        <v>0.7326</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="3"/>
+      <c r="A12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <f aca="false">C12/B12-$B$1</f>
+        <v>17.21</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">IF(C12&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">IF(C12&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">D12*B12</f>
+        <v>2.7536</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="3"/>
+      <c r="A13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <f aca="false">C13/B13-$B$1</f>
+        <v>10.21</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">IF(C13&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">IF(C13&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">D13*B13</f>
+        <v>1.6336</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="3"/>
+      <c r="A14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">C14/B14-$B$1</f>
+        <v>-47.79</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">IF(C14&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">IF(C14&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">D14*B14</f>
+        <v>-8.6022</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="3"/>
@@ -4266,7 +4338,7 @@
       <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/kelly.xlsx
+++ b/kelly.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Caga" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Cumhur" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Guru" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t xml:space="preserve">Kelly Kriterine Gore Lot ve Para Yonetimi</t>
   </si>
@@ -195,7 +196,6 @@
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -217,14 +217,12 @@
       <color rgb="FFC9211E"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -400,10 +398,10 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.24"/>
@@ -447,26 +445,26 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <f aca="false">Caga!N4</f>
-        <v>17.085</v>
+        <f aca="false">Guru!N4</f>
+        <v>16.5225</v>
       </c>
       <c r="B5" s="2" t="n">
-        <f aca="false">Caga!O4</f>
-        <v>91.58</v>
+        <f aca="false">Guru!O4</f>
+        <v>95.58</v>
       </c>
       <c r="C5" s="2" t="n">
-        <f aca="false">Caga!M4</f>
-        <v>0.9</v>
+        <f aca="false">Guru!M4</f>
+        <v>0.941176470588235</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="2" t="n">
-        <f aca="false">Caga!Q4</f>
-        <v>401.5322</v>
+        <f aca="false">Guru!Q4</f>
+        <v>612.57</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>2</v>
@@ -506,35 +504,35 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <f aca="false">(A5+B5)/B5</f>
-        <v>1.18655820048045</v>
+        <v>1.17286566227244</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">1-$C$5</f>
-        <v>0.1</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">C5-B9/(A9-1)</f>
-        <v>0.363974246414984</v>
+        <v>0.600891831993805</v>
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">E5/D5*(0.7*F5)</f>
-        <v>0.28107254</v>
+        <v>2.143995</v>
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">$C$9*$D$9</f>
-        <v>0.102303165934445</v>
+        <v>1.28830908333556</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">G5*E5/100</f>
-        <v>8.030644</v>
+        <v>12.2514</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(F9/E9)</f>
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">(A9-1)*G9</f>
-        <v>14.5515396374754</v>
+        <v>1.55579096045198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +543,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="n">
         <f aca="false">1/D5*(0.7*F5)</f>
-        <v>0.0007</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +564,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +573,7 @@
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">B15*B16</f>
-        <v>154</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,11 +582,11 @@
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(B17*C5)</f>
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">B16*C5</f>
-        <v>6.3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +595,7 @@
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^C18*(1-C9*D11*B5)^(B16-C18)-E5</f>
-        <v>4.37525134881247</v>
+        <v>232.811383429045</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +604,7 @@
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">B21-E5</f>
-        <v>99.6350584961886</v>
+        <v>732024.272015603</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,7 +613,7 @@
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^B18*(1-C9*D11*B5)^(B17-B18)</f>
-        <v>501.167258496189</v>
+        <v>732636.842015603</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,7 +630,7 @@
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">(A5*C5-B5*(1-C5))*B16*B24</f>
-        <v>0.435295</v>
+        <v>1.6878</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +639,7 @@
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">B25*B15</f>
-        <v>9.57649000000001</v>
+        <v>37.1316</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +648,7 @@
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">E5+B26</f>
-        <v>411.10869</v>
+        <v>649.7016</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +666,7 @@
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">B30*(A5*C5-(1-C5)*B5)*B16</f>
-        <v>3.48236</v>
+        <v>13.5024</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +675,7 @@
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">B15*B31</f>
-        <v>76.6119200000001</v>
+        <v>297.0528</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +684,7 @@
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">E5+B32</f>
-        <v>478.14412</v>
+        <v>909.6228</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +709,7 @@
       <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.38"/>
@@ -3611,7 +3609,7 @@
       <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.16"/>
@@ -4338,7 +4336,7 @@
       <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5235,4 +5233,899 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">-B2*Sheet1!G5/100</f>
+        <v>-8</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">C4/B4-$B$1</f>
+        <v>-43.79</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">IF(C4&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">IF(C4&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">D4*B4</f>
+        <v>-8.758</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">SUM(F5:F118)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">SUM(E5:E108)</f>
+        <v>16</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">L4/(L4+K4)</f>
+        <v>0.941176470588235</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">SUMIF(E5:E211,1,D5:D211)/L4</f>
+        <v>16.5225</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">ABS(SUMIF(F4:F208,1,D4:D208)/K4)</f>
+        <v>95.58</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">SUM(G5:G59)</f>
+        <v>212.57</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">B2+P4</f>
+        <v>612.57</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">Q4-G4</f>
+        <v>621.328</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">C5/B5-$B$1</f>
+        <v>12.21</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">IF(C5&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">IF(C5&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">D5*B5</f>
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <f aca="false">C6/B6-$B$1</f>
+        <v>1.21</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">IF(C6&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">IF(C6&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">D6*B6</f>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">C7/B7-$B$1</f>
+        <v>15.21</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">IF(C7&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">IF(C7&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">D7*B7</f>
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">C8/B8-$B$1</f>
+        <v>19.21</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">IF(C8&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">IF(C8&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">D8*B8</f>
+        <v>19.21</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <f aca="false">C9/B9-$B$1</f>
+        <v>6.21</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">IF(C9&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">IF(C9&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">D9*B9</f>
+        <v>6.21</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">STDEV(G4:G107)</f>
+        <v>19.6296468964942</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G107)</f>
+        <v>11.3228888888889</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">L9/K9</f>
+        <v>0.576825907699395</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">AVERAGE(B5:B43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">C10/B10-$B$1</f>
+        <v>6.21</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">IF(C10&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">IF(C10&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">D10*B10</f>
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">C11/B11-$B$1</f>
+        <v>14.21</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">IF(C11&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">IF(C11&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">D11*B11</f>
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <f aca="false">C12/B12-$B$1</f>
+        <v>17.21</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">IF(C12&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">IF(C12&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">D12*B12</f>
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <f aca="false">C13/B13-$B$1</f>
+        <v>14.21</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">IF(C13&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">IF(C13&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">D13*B13</f>
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-48</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">C14/B14-$B$1</f>
+        <v>-51.79</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">IF(C14&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">IF(C14&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">D14*B14</f>
+        <v>-51.79</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">C15/B15-$B$1</f>
+        <v>18.21</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">IF(C15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">IF(C15&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">D15*B15</f>
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <f aca="false">C16/B16-$B$1</f>
+        <v>34.21</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">IF(C16&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">IF(C16&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">D16*B16</f>
+        <v>34.21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">C17/B17-$B$1</f>
+        <v>21.21</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">IF(C17&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">IF(C17&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">D17*B17</f>
+        <v>21.21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">C18/B18-$B$1</f>
+        <v>44.21</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">IF(C18&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">IF(C18&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">D18*B18</f>
+        <v>44.21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">C19/B19-$B$1</f>
+        <v>10.21</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">IF(C19&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">IF(C19&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">D19*B19</f>
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">C20/B20-$B$1</f>
+        <v>8.21</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">IF(C20&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">IF(C20&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">D20*B20</f>
+        <v>8.21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">C21/B21-$B$1</f>
+        <v>22.21</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">IF(C21&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">IF(C21&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">D21*B21</f>
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/kelly.xlsx
+++ b/kelly.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t xml:space="preserve">Kelly Kriterine Gore Lot ve Para Yonetimi</t>
   </si>
@@ -71,16 +71,25 @@
     <t xml:space="preserve">Kelly Lotu</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk(para)</t>
+    <t xml:space="preserve">Kelly Risk(Para)</t>
   </si>
   <si>
-    <t xml:space="preserve">Maks SL (Point)</t>
+    <t xml:space="preserve">Kelly Risk%</t>
   </si>
   <si>
-    <t xml:space="preserve">Hesp. MaksTP</t>
+    <t xml:space="preserve">Risk Mod Kelly Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP</t>
   </si>
   <si>
     <t xml:space="preserve">C coef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRM Risk(Para)</t>
   </si>
   <si>
     <t xml:space="preserve">Gelecek Projeksyon</t>
@@ -225,7 +234,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +245,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5429"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -285,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,23 +319,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,7 +372,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -374,7 +403,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF5429"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -395,10 +424,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -407,7 +436,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,23 +480,23 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <f aca="false">Guru!N4</f>
-        <v>16.5225</v>
+        <f aca="false">Caga!N4</f>
+        <v>16.8202941176471</v>
       </c>
       <c r="B5" s="2" t="n">
-        <f aca="false">Guru!O4</f>
-        <v>95.58</v>
+        <f aca="false">Caga!O4</f>
+        <v>27.2185714285714</v>
       </c>
       <c r="C5" s="2" t="n">
-        <f aca="false">Guru!M4</f>
-        <v>0.941176470588235</v>
+        <f aca="false">ROUND(Caga!M4,2)</f>
+        <v>0.71</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="2" t="n">
-        <f aca="false">Guru!Q4</f>
-        <v>612.57</v>
+        <f aca="false">Caga!Q4</f>
+        <v>411.5769</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>500</v>
@@ -500,44 +535,61 @@
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <f aca="false">(A5+B5)/B5</f>
-        <v>1.17286566227244</v>
+        <v>1.6179712319505</v>
       </c>
       <c r="B9" s="2" t="n">
-        <f aca="false">1-$C$5</f>
-        <v>0.0588235294117647</v>
+        <f aca="false">ROUND(1-$C$5,2)</f>
+        <v>0.29</v>
       </c>
       <c r="C9" s="2" t="n">
-        <f aca="false">C5-B9/(A9-1)</f>
-        <v>0.600891831993805</v>
+        <f aca="false">ROUND(C5-B9/(A9-1),2)</f>
+        <v>0.24</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false">E5/D5*(0.7*F5)</f>
-        <v>2.143995</v>
+        <f aca="false">ROUND(E5/D5*(0.7*F5),2)</f>
+        <v>1.44</v>
       </c>
       <c r="E9" s="2" t="n">
-        <f aca="false">$C$9*$D$9</f>
-        <v>1.28830908333556</v>
+        <f aca="false">ROUND($C$9*$D$9,2)</f>
+        <v>0.35</v>
       </c>
       <c r="F9" s="2" t="n">
-        <f aca="false">G5*E5/100</f>
-        <v>12.2514</v>
+        <f aca="false">ROUND(E9*B5,2)</f>
+        <v>9.53</v>
       </c>
       <c r="G9" s="2" t="n">
-        <f aca="false">_xlfn.FLOOR.MATH(F9/E9)</f>
-        <v>9</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">(A9-1)*G9</f>
-        <v>1.55579096045198</v>
+        <f aca="false">ROUND(F9/E5*100,1)</f>
+        <v>2.3</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">ROUND(G5/G9*E9,2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(B5)</f>
+        <v>27</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(A5)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,15 +597,19 @@
         <f aca="false">1/D5*(0.7*F5)</f>
         <v>0.0035</v>
       </c>
+      <c r="F11" s="3" t="n">
+        <f aca="false">H9*I9</f>
+        <v>8.1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>22</v>
@@ -561,7 +617,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>17</v>
@@ -569,7 +625,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">B15*B16</f>
@@ -578,47 +634,71 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(B17*C5)</f>
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">B16*C5</f>
-        <v>16</v>
+        <v>12.07</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^C18*(1-C9*D11*B5)^(B16-C18)-E5</f>
-        <v>232.811383429045</v>
+        <v>23.4090988136824</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">E5*(1+C9*D11*A5*G5/G9)^C18*(1-C9*D11*B5*G5/G9)^(B16-C18)-E5</f>
+        <v>20.4047676064941</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">B21-E5</f>
-        <v>732024.272015603</v>
+        <v>950.716832900483</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">F21-E5</f>
+        <v>761.139041336821</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^B18*(1-C9*D11*B5)^(B17-B18)</f>
-        <v>732636.842015603</v>
+        <v>1362.29373290048</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">E5*(1+C9*D11*A5*G5/G9)^B18*(1-C9*D11*B5*G5/G9)^(B17-B18)</f>
+        <v>1172.71594133682</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>27</v>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.01</v>
@@ -626,65 +706,65 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">(A5*C5-B5*(1-C5))*B16*B24</f>
-        <v>1.6878</v>
+        <v>0.688333928571429</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">B25*B15</f>
-        <v>37.1316</v>
+        <v>15.1433464285714</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">E5+B26</f>
-        <v>649.7016</v>
+        <v>426.720246428571</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>30</v>
+      <c r="A30" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(Caga!O9,0.01)</f>
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">B30*(A5*C5-(1-C5)*B5)*B16</f>
-        <v>13.5024</v>
+        <v>16.5200142857143</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">B15*B31</f>
-        <v>297.0528</v>
+        <v>363.440314285714</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">E5+B32</f>
-        <v>909.6228</v>
+        <v>775.017214285715</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +801,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>4</v>
@@ -729,40 +809,40 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +855,7 @@
       <c r="C4" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="5" t="n">
         <f aca="false">C4/B4-$B$1</f>
         <v>33</v>
       </c>
@@ -822,7 +902,7 @@
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">C5/B5-$B$1</f>
         <v>0</v>
       </c>
@@ -849,7 +929,7 @@
       <c r="C6" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="5" t="n">
         <f aca="false">C6/B6-$B$1</f>
         <v>27</v>
       </c>
@@ -876,7 +956,7 @@
       <c r="C7" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="5" t="n">
         <f aca="false">C7/B7-$B$1</f>
         <v>38</v>
       </c>
@@ -903,7 +983,7 @@
       <c r="C8" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="5" t="n">
         <f aca="false">C8/B8-$B$1</f>
         <v>13</v>
       </c>
@@ -920,13 +1000,13 @@
         <v>13</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,7 +1019,7 @@
       <c r="C9" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="5" t="n">
         <f aca="false">C9/B9-$B$1</f>
         <v>15</v>
       </c>
@@ -978,7 +1058,7 @@
       <c r="C10" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="5" t="n">
         <f aca="false">C10/B10-$B$1</f>
         <v>17</v>
       </c>
@@ -1005,7 +1085,7 @@
       <c r="C11" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="5" t="n">
         <f aca="false">C11/B11-$B$1</f>
         <v>32</v>
       </c>
@@ -1032,7 +1112,7 @@
       <c r="C12" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="5" t="n">
         <f aca="false">C12/B12-$B$1</f>
         <v>57</v>
       </c>
@@ -1059,7 +1139,7 @@
       <c r="C13" s="0" t="n">
         <v>-4</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="5" t="n">
         <f aca="false">C13/B13-$B$1</f>
         <v>-8</v>
       </c>
@@ -1086,7 +1166,7 @@
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="5" t="n">
         <f aca="false">C14/B14-$B$1</f>
         <v>4</v>
       </c>
@@ -1113,7 +1193,7 @@
       <c r="C15" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="5" t="n">
         <f aca="false">C15/B15-$B$1</f>
         <v>15</v>
       </c>
@@ -1140,7 +1220,7 @@
       <c r="C16" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="5" t="n">
         <f aca="false">C16/B16-$B$1</f>
         <v>15</v>
       </c>
@@ -1167,7 +1247,7 @@
       <c r="C17" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="5" t="n">
         <f aca="false">C17/B17-$B$1</f>
         <v>17</v>
       </c>
@@ -1194,7 +1274,7 @@
       <c r="C18" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="5" t="n">
         <f aca="false">C18/B18-$B$1</f>
         <v>17</v>
       </c>
@@ -1221,7 +1301,7 @@
       <c r="C19" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="5" t="n">
         <f aca="false">C19/B19-$B$1</f>
         <v>17</v>
       </c>
@@ -1248,7 +1328,7 @@
       <c r="C20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="5" t="n">
         <f aca="false">C20/B20-$B$1</f>
         <v>-2</v>
       </c>
@@ -1275,7 +1355,7 @@
       <c r="C21" s="0" t="n">
         <v>-8</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="5" t="n">
         <f aca="false">C21/B21-$B$1</f>
         <v>-12</v>
       </c>
@@ -1302,7 +1382,7 @@
       <c r="C22" s="0" t="n">
         <v>-9</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="5" t="n">
         <f aca="false">C22/B22-$B$1</f>
         <v>-13</v>
       </c>
@@ -1329,7 +1409,7 @@
       <c r="C23" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="5" t="n">
         <f aca="false">C23/B23-$B$1</f>
         <v>23</v>
       </c>
@@ -1356,7 +1436,7 @@
       <c r="C24" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="5" t="n">
         <f aca="false">C24/B24-$B$1</f>
         <v>23</v>
       </c>
@@ -1383,7 +1463,7 @@
       <c r="C25" s="0" t="n">
         <v>-4</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="5" t="n">
         <f aca="false">C25/B25-$B$1</f>
         <v>-8</v>
       </c>
@@ -1410,7 +1490,7 @@
       <c r="C26" s="0" t="n">
         <v>-5</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="5" t="n">
         <f aca="false">C26/B26-$B$1</f>
         <v>-9</v>
       </c>
@@ -1437,7 +1517,7 @@
       <c r="C27" s="0" t="n">
         <v>-7</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="5" t="n">
         <f aca="false">C27/B27-$B$1</f>
         <v>-11</v>
       </c>
@@ -1464,7 +1544,7 @@
       <c r="C28" s="0" t="n">
         <v>-20</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="5" t="n">
         <f aca="false">C28/B28-$B$1</f>
         <v>-24</v>
       </c>
@@ -1491,7 +1571,7 @@
       <c r="C29" s="0" t="n">
         <v>-20</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="5" t="n">
         <f aca="false">C29/B29-$B$1</f>
         <v>-24</v>
       </c>
@@ -1518,7 +1598,7 @@
       <c r="C30" s="0" t="n">
         <v>-22</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="5" t="n">
         <f aca="false">C30/B30-$B$1</f>
         <v>-26</v>
       </c>
@@ -1545,7 +1625,7 @@
       <c r="C31" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="5" t="n">
         <f aca="false">C31/B31-$B$1</f>
         <v>17</v>
       </c>
@@ -1572,7 +1652,7 @@
       <c r="C32" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="5" t="n">
         <f aca="false">C32/B32-$B$1</f>
         <v>23</v>
       </c>
@@ -1599,7 +1679,7 @@
       <c r="C33" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="5" t="n">
         <f aca="false">C33/B33-$B$1</f>
         <v>4</v>
       </c>
@@ -1626,7 +1706,7 @@
       <c r="C34" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="5" t="n">
         <f aca="false">C34/B34-$B$1</f>
         <v>30</v>
       </c>
@@ -1653,7 +1733,7 @@
       <c r="C35" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="5" t="n">
         <f aca="false">C35/B35-$B$1</f>
         <v>16</v>
       </c>
@@ -1680,7 +1760,7 @@
       <c r="C36" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="5" t="n">
         <f aca="false">C36/B36-$B$1</f>
         <v>19</v>
       </c>
@@ -1707,7 +1787,7 @@
       <c r="C37" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="5" t="n">
         <f aca="false">C37/B37-$B$1</f>
         <v>24</v>
       </c>
@@ -1734,7 +1814,7 @@
       <c r="C38" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="5" t="n">
         <f aca="false">C38/B38-$B$1</f>
         <v>27</v>
       </c>
@@ -1761,7 +1841,7 @@
       <c r="C39" s="0" t="n">
         <v>-4</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="5" t="n">
         <f aca="false">C39/B39-$B$1</f>
         <v>-8</v>
       </c>
@@ -1788,7 +1868,7 @@
       <c r="C40" s="0" t="n">
         <v>-41</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="5" t="n">
         <f aca="false">C40/B40-$B$1</f>
         <v>-45</v>
       </c>
@@ -1815,7 +1895,7 @@
       <c r="C41" s="0" t="n">
         <v>-41</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="5" t="n">
         <f aca="false">C41/B41-$B$1</f>
         <v>-45</v>
       </c>
@@ -1842,7 +1922,7 @@
       <c r="C42" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="5" t="n">
         <f aca="false">C42/B42-$B$1</f>
         <v>-37</v>
       </c>
@@ -1869,7 +1949,7 @@
       <c r="C43" s="0" t="n">
         <v>-28</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="5" t="n">
         <f aca="false">C43/B43-$B$1</f>
         <v>-32</v>
       </c>
@@ -1896,7 +1976,7 @@
       <c r="C44" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="5" t="n">
         <f aca="false">C44/B44-$B$1</f>
         <v>10</v>
       </c>
@@ -1923,7 +2003,7 @@
       <c r="C45" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="5" t="n">
         <f aca="false">C45/B45-$B$1</f>
         <v>15</v>
       </c>
@@ -1950,7 +2030,7 @@
       <c r="C46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="5" t="n">
         <f aca="false">C46/B46-$B$1</f>
         <v>13</v>
       </c>
@@ -1977,7 +2057,7 @@
       <c r="C47" s="0" t="n">
         <v>-66</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="5" t="n">
         <f aca="false">C47/B47-$B$1</f>
         <v>-70</v>
       </c>
@@ -2004,7 +2084,7 @@
       <c r="C48" s="0" t="n">
         <v>-53</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="5" t="n">
         <f aca="false">C48/B48-$B$1</f>
         <v>-57</v>
       </c>
@@ -2031,7 +2111,7 @@
       <c r="C49" s="0" t="n">
         <v>-46</v>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" s="5" t="n">
         <f aca="false">C49/B49-$B$1</f>
         <v>-50</v>
       </c>
@@ -2058,7 +2138,7 @@
       <c r="C50" s="0" t="n">
         <v>-47</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="5" t="n">
         <f aca="false">C50/B50-$B$1</f>
         <v>-51</v>
       </c>
@@ -2085,7 +2165,7 @@
       <c r="C51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="5" t="n">
         <f aca="false">C51/B51-$B$1</f>
         <v>-3</v>
       </c>
@@ -2112,7 +2192,7 @@
       <c r="C52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D52" s="3" t="n">
+      <c r="D52" s="5" t="n">
         <f aca="false">C52/B52-$B$1</f>
         <v>-3</v>
       </c>
@@ -2139,7 +2219,7 @@
       <c r="C53" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="5" t="n">
         <f aca="false">C53/B53-$B$1</f>
         <v>0</v>
       </c>
@@ -2166,7 +2246,7 @@
       <c r="C54" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="5" t="n">
         <f aca="false">C54/B54-$B$1</f>
         <v>-5</v>
       </c>
@@ -2193,7 +2273,7 @@
       <c r="C55" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D55" s="3" t="n">
+      <c r="D55" s="5" t="n">
         <f aca="false">C55/B55-$B$1</f>
         <v>22</v>
       </c>
@@ -2220,7 +2300,7 @@
       <c r="C56" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="D56" s="3" t="n">
+      <c r="D56" s="5" t="n">
         <f aca="false">C56/B56-$B$1</f>
         <v>65</v>
       </c>
@@ -2247,7 +2327,7 @@
       <c r="C57" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D57" s="3" t="n">
+      <c r="D57" s="5" t="n">
         <f aca="false">C57/B57-$B$1</f>
         <v>20</v>
       </c>
@@ -2274,7 +2354,7 @@
       <c r="C58" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D58" s="3" t="n">
+      <c r="D58" s="5" t="n">
         <f aca="false">C58/B58-$B$1</f>
         <v>16</v>
       </c>
@@ -2301,7 +2381,7 @@
       <c r="C59" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" s="5" t="n">
         <f aca="false">C59/B59-$B$1</f>
         <v>-5</v>
       </c>
@@ -2328,7 +2408,7 @@
       <c r="C60" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D60" s="3" t="n">
+      <c r="D60" s="5" t="n">
         <f aca="false">C60/B60-$B$1</f>
         <v>44</v>
       </c>
@@ -2355,7 +2435,7 @@
       <c r="C61" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D61" s="3" t="n">
+      <c r="D61" s="5" t="n">
         <f aca="false">C61/B61-$B$1</f>
         <v>40</v>
       </c>
@@ -2382,7 +2462,7 @@
       <c r="C62" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D62" s="3" t="n">
+      <c r="D62" s="5" t="n">
         <f aca="false">C62/B62-$B$1</f>
         <v>41</v>
       </c>
@@ -2409,7 +2489,7 @@
       <c r="C63" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D63" s="3" t="n">
+      <c r="D63" s="5" t="n">
         <f aca="false">C63/B63-$B$1</f>
         <v>32</v>
       </c>
@@ -2436,7 +2516,7 @@
       <c r="C64" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="D64" s="3" t="n">
+      <c r="D64" s="5" t="n">
         <f aca="false">C64/B64-$B$1</f>
         <v>45</v>
       </c>
@@ -2463,7 +2543,7 @@
       <c r="C65" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D65" s="3" t="n">
+      <c r="D65" s="5" t="n">
         <f aca="false">C65/B65-$B$1</f>
         <v>50</v>
       </c>
@@ -2490,7 +2570,7 @@
       <c r="C66" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D66" s="3" t="n">
+      <c r="D66" s="5" t="n">
         <f aca="false">C66/B66-$B$1</f>
         <v>29</v>
       </c>
@@ -2517,7 +2597,7 @@
       <c r="C67" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="D67" s="3" t="n">
+      <c r="D67" s="5" t="n">
         <f aca="false">C67/B67-$B$1</f>
         <v>-36</v>
       </c>
@@ -2544,7 +2624,7 @@
       <c r="C68" s="0" t="n">
         <v>-44</v>
       </c>
-      <c r="D68" s="3" t="n">
+      <c r="D68" s="5" t="n">
         <f aca="false">C68/B68-$B$1</f>
         <v>-48</v>
       </c>
@@ -2571,7 +2651,7 @@
       <c r="C69" s="0" t="n">
         <v>-34</v>
       </c>
-      <c r="D69" s="3" t="n">
+      <c r="D69" s="5" t="n">
         <f aca="false">C69/B69-$B$1</f>
         <v>-38</v>
       </c>
@@ -2598,7 +2678,7 @@
       <c r="C70" s="0" t="n">
         <v>-22</v>
       </c>
-      <c r="D70" s="3" t="n">
+      <c r="D70" s="5" t="n">
         <f aca="false">C70/B70-$B$1</f>
         <v>-26</v>
       </c>
@@ -2625,7 +2705,7 @@
       <c r="C71" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D71" s="3" t="n">
+      <c r="D71" s="5" t="n">
         <f aca="false">C71/B71-$B$1</f>
         <v>59</v>
       </c>
@@ -2652,7 +2732,7 @@
       <c r="C72" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="D72" s="3" t="n">
+      <c r="D72" s="5" t="n">
         <f aca="false">C72/B72-$B$1</f>
         <v>53</v>
       </c>
@@ -2679,7 +2759,7 @@
       <c r="C73" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="D73" s="3" t="n">
+      <c r="D73" s="5" t="n">
         <f aca="false">C73/B73-$B$1</f>
         <v>54</v>
       </c>
@@ -2706,7 +2786,7 @@
       <c r="C74" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="D74" s="3" t="n">
+      <c r="D74" s="5" t="n">
         <f aca="false">C74/B74-$B$1</f>
         <v>52</v>
       </c>
@@ -2733,7 +2813,7 @@
       <c r="C75" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="D75" s="3" t="n">
+      <c r="D75" s="5" t="n">
         <f aca="false">C75/B75-$B$1</f>
         <v>58</v>
       </c>
@@ -2760,7 +2840,7 @@
       <c r="C76" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="D76" s="3" t="n">
+      <c r="D76" s="5" t="n">
         <f aca="false">C76/B76-$B$1</f>
         <v>59</v>
       </c>
@@ -2787,7 +2867,7 @@
       <c r="C77" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="D77" s="3" t="n">
+      <c r="D77" s="5" t="n">
         <f aca="false">C77/B77-$B$1</f>
         <v>58</v>
       </c>
@@ -2814,7 +2894,7 @@
       <c r="C78" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D78" s="3" t="n">
+      <c r="D78" s="5" t="n">
         <f aca="false">C78/B78-$B$1</f>
         <v>66</v>
       </c>
@@ -2841,7 +2921,7 @@
       <c r="C79" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D79" s="3" t="n">
+      <c r="D79" s="5" t="n">
         <f aca="false">C79/B79-$B$1</f>
         <v>13</v>
       </c>
@@ -2868,7 +2948,7 @@
       <c r="C80" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D80" s="3" t="n">
+      <c r="D80" s="5" t="n">
         <f aca="false">C80/B80-$B$1</f>
         <v>18</v>
       </c>
@@ -2895,7 +2975,7 @@
       <c r="C81" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D81" s="3" t="n">
+      <c r="D81" s="5" t="n">
         <f aca="false">C81/B81-$B$1</f>
         <v>13</v>
       </c>
@@ -2922,7 +3002,7 @@
       <c r="C82" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D82" s="3" t="n">
+      <c r="D82" s="5" t="n">
         <f aca="false">C82/B82-$B$1</f>
         <v>32</v>
       </c>
@@ -2949,7 +3029,7 @@
       <c r="C83" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="D83" s="3" t="n">
+      <c r="D83" s="5" t="n">
         <f aca="false">C83/B83-$B$1</f>
         <v>55</v>
       </c>
@@ -2976,7 +3056,7 @@
       <c r="C84" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="D84" s="3" t="n">
+      <c r="D84" s="5" t="n">
         <f aca="false">C84/B84-$B$1</f>
         <v>65</v>
       </c>
@@ -3003,7 +3083,7 @@
       <c r="C85" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="D85" s="3" t="n">
+      <c r="D85" s="5" t="n">
         <f aca="false">C85/B85-$B$1</f>
         <v>43</v>
       </c>
@@ -3030,7 +3110,7 @@
       <c r="C86" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D86" s="3" t="n">
+      <c r="D86" s="5" t="n">
         <f aca="false">C86/B86-$B$1</f>
         <v>20</v>
       </c>
@@ -3057,7 +3137,7 @@
       <c r="C87" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D87" s="3" t="n">
+      <c r="D87" s="5" t="n">
         <f aca="false">C87/B87-$B$1</f>
         <v>21</v>
       </c>
@@ -3084,7 +3164,7 @@
       <c r="C88" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D88" s="3" t="n">
+      <c r="D88" s="5" t="n">
         <f aca="false">C88/B88-$B$1</f>
         <v>8</v>
       </c>
@@ -3111,7 +3191,7 @@
       <c r="C89" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D89" s="3" t="n">
+      <c r="D89" s="5" t="n">
         <f aca="false">C89/B89-$B$1</f>
         <v>17</v>
       </c>
@@ -3138,7 +3218,7 @@
       <c r="C90" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D90" s="3" t="n">
+      <c r="D90" s="5" t="n">
         <f aca="false">C90/B90-$B$1</f>
         <v>19</v>
       </c>
@@ -3165,7 +3245,7 @@
       <c r="C91" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D91" s="3" t="n">
+      <c r="D91" s="5" t="n">
         <f aca="false">C91/B91-$B$1</f>
         <v>16</v>
       </c>
@@ -3192,7 +3272,7 @@
       <c r="C92" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D92" s="3" t="n">
+      <c r="D92" s="5" t="n">
         <f aca="false">C92/B92-$B$1</f>
         <v>12</v>
       </c>
@@ -3219,7 +3299,7 @@
       <c r="C93" s="0" t="n">
         <v>-99</v>
       </c>
-      <c r="D93" s="3" t="n">
+      <c r="D93" s="5" t="n">
         <f aca="false">C93/B93-$B$1</f>
         <v>-103</v>
       </c>
@@ -3246,7 +3326,7 @@
       <c r="C94" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D94" s="3" t="n">
+      <c r="D94" s="5" t="n">
         <f aca="false">C94/B94-$B$1</f>
         <v>46</v>
       </c>
@@ -3273,7 +3353,7 @@
       <c r="C95" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D95" s="3" t="n">
+      <c r="D95" s="5" t="n">
         <f aca="false">C95/B95-$B$1</f>
         <v>22</v>
       </c>
@@ -3300,7 +3380,7 @@
       <c r="C96" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D96" s="3" t="n">
+      <c r="D96" s="5" t="n">
         <f aca="false">C96/B96-$B$1</f>
         <v>19</v>
       </c>
@@ -3327,7 +3407,7 @@
       <c r="C97" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D97" s="3" t="n">
+      <c r="D97" s="5" t="n">
         <f aca="false">C97/B97-$B$1</f>
         <v>20</v>
       </c>
@@ -3354,7 +3434,7 @@
       <c r="C98" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D98" s="3" t="n">
+      <c r="D98" s="5" t="n">
         <f aca="false">C98/B98-$B$1</f>
         <v>16</v>
       </c>
@@ -3381,7 +3461,7 @@
       <c r="C99" s="0" t="n">
         <v>-128</v>
       </c>
-      <c r="D99" s="3" t="n">
+      <c r="D99" s="5" t="n">
         <f aca="false">C99/B99-$B$1</f>
         <v>-132</v>
       </c>
@@ -3408,7 +3488,7 @@
       <c r="C100" s="0" t="n">
         <v>-139</v>
       </c>
-      <c r="D100" s="3" t="n">
+      <c r="D100" s="5" t="n">
         <f aca="false">C100/B100-$B$1</f>
         <v>-143</v>
       </c>
@@ -3435,7 +3515,7 @@
       <c r="C101" s="0" t="n">
         <v>-134</v>
       </c>
-      <c r="D101" s="3" t="n">
+      <c r="D101" s="5" t="n">
         <f aca="false">C101/B101-$B$1</f>
         <v>-138</v>
       </c>
@@ -3462,7 +3542,7 @@
       <c r="C102" s="0" t="n">
         <v>-136</v>
       </c>
-      <c r="D102" s="3" t="n">
+      <c r="D102" s="5" t="n">
         <f aca="false">C102/B102-$B$1</f>
         <v>-140</v>
       </c>
@@ -3489,7 +3569,7 @@
       <c r="C103" s="0" t="n">
         <v>-135</v>
       </c>
-      <c r="D103" s="3" t="n">
+      <c r="D103" s="5" t="n">
         <f aca="false">C103/B103-$B$1</f>
         <v>-139</v>
       </c>
@@ -3516,7 +3596,7 @@
       <c r="C104" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D104" s="3" t="n">
+      <c r="D104" s="5" t="n">
         <f aca="false">C104/B104-$B$1</f>
         <v>21</v>
       </c>
@@ -3543,7 +3623,7 @@
       <c r="C105" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D105" s="3" t="n">
+      <c r="D105" s="5" t="n">
         <f aca="false">C105/B105-$B$1</f>
         <v>11</v>
       </c>
@@ -3570,7 +3650,7 @@
       <c r="C106" s="0" t="n">
         <v>5.2</v>
       </c>
-      <c r="D106" s="3" t="n">
+      <c r="D106" s="5" t="n">
         <f aca="false">C106/B106-$B$1</f>
         <v>9</v>
       </c>
@@ -3606,7 +3686,7 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3619,7 +3699,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>3.79</v>
@@ -3627,7 +3707,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>400</v>
@@ -3635,60 +3715,60 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="7" t="n">
         <f aca="false">-B2*Sheet1!G5/100</f>
         <v>-8</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="5" t="n">
         <f aca="false">C4/B4-$B$1</f>
         <v>-43.79</v>
       </c>
@@ -3706,48 +3786,48 @@
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">SUM(F5:F118)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">SUM(E5:E108)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">L4/(L4+K4)</f>
-        <v>0.9</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">SUMIF(E5:E211,1,D5:D211)/L4</f>
-        <v>17.085</v>
+        <v>16.8202941176471</v>
       </c>
       <c r="O4" s="0" t="n">
-        <f aca="false">ABS(SUMIF(F4:F208,1,D4:D208)/K4)</f>
-        <v>91.58</v>
+        <f aca="false">ABS(SUMIF(F5:F209,1,D5:D209)/K4)</f>
+        <v>27.2185714285714</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">SUM(G5:G59)</f>
-        <v>1.5322</v>
+        <v>11.5769</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">B2+P4</f>
-        <v>401.5322</v>
+        <v>411.5769</v>
       </c>
       <c r="R4" s="0" t="n">
         <f aca="false">Q4-G4</f>
-        <v>410.2902</v>
+        <v>420.3349</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="7" t="n">
         <v>0.49</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">C5/B5-$B$1</f>
         <v>20.71</v>
       </c>
@@ -3768,13 +3848,13 @@
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="9" t="n">
         <v>0.18</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="5" t="n">
         <f aca="false">C6/B6-$B$1</f>
         <v>14.21</v>
       </c>
@@ -3795,13 +3875,13 @@
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="6" t="n">
         <v>0.16</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="7" t="n">
         <v>3.58</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="5" t="n">
         <f aca="false">C7/B7-$B$1</f>
         <v>18.585</v>
       </c>
@@ -3822,13 +3902,13 @@
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="8" t="n">
         <v>0.04</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="9" t="n">
         <v>1.04</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="5" t="n">
         <f aca="false">C8/B8-$B$1</f>
         <v>22.21</v>
       </c>
@@ -3845,29 +3925,29 @@
         <v>0.8884</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="5" t="n">
         <f aca="false">C9/B9-$B$1</f>
         <v>21.21</v>
       </c>
@@ -3885,32 +3965,32 @@
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">STDEV(G4:G107)</f>
-        <v>4.08380191499405</v>
+        <v>7.19311012781676</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">AVERAGE(G4:G107)</f>
-        <v>-0.656890909090909</v>
+        <v>0.112756</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">L9/K9</f>
-        <v>-0.160852784430869</v>
+        <v>0.0156755559134229</v>
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">AVERAGE(B5:B43)</f>
-        <v>0.082</v>
+        <v>0.245416666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="9" t="n">
         <v>0.21</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="5" t="n">
         <f aca="false">C10/B10-$B$1</f>
         <v>17.21</v>
       </c>
@@ -3931,13 +4011,13 @@
       <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="6" t="n">
         <v>0.06</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="7" t="n">
         <v>0.96</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="5" t="n">
         <f aca="false">C11/B11-$B$1</f>
         <v>12.21</v>
       </c>
@@ -3958,13 +4038,13 @@
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="8" t="n">
         <v>0.16</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="9" t="n">
         <v>3.36</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="5" t="n">
         <f aca="false">C12/B12-$B$1</f>
         <v>17.21</v>
       </c>
@@ -3985,13 +4065,13 @@
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="6" t="n">
         <v>0.16</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="7" t="n">
         <v>2.24</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="5" t="n">
         <f aca="false">C13/B13-$B$1</f>
         <v>10.21</v>
       </c>
@@ -4018,7 +4098,7 @@
       <c r="C14" s="0" t="n">
         <v>-7.92</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="5" t="n">
         <f aca="false">C14/B14-$B$1</f>
         <v>-47.79</v>
       </c>
@@ -4036,283 +4116,619 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="3"/>
+      <c r="A15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <f aca="false">C15/B15-$B$1</f>
+        <v>15.21</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">IF(C15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">IF(C15&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">D15*B15</f>
+        <v>1.521</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="3"/>
+      <c r="A16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">C16/B16-$B$1</f>
+        <v>18.21</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">IF(C16&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">IF(C16&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">D16*B16</f>
+        <v>14.568</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="3"/>
+      <c r="A17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <f aca="false">C17/B17-$B$1</f>
+        <v>17.21</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">IF(C17&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">IF(C17&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">D17*B17</f>
+        <v>17.21</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="3"/>
+      <c r="A18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <f aca="false">C18/B18-$B$1</f>
+        <v>21.21</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">IF(C18&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">IF(C18&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">D18*B18</f>
+        <v>3.8178</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="3"/>
+      <c r="A19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <f aca="false">C19/B19-$B$1</f>
+        <v>-7.79</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">IF(C19&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">IF(C19&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">D19*B19</f>
+        <v>-1.4022</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="3"/>
+      <c r="A20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <f aca="false">C20/B20-$B$1</f>
+        <v>4.21</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">IF(C20&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">IF(C20&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">D20*B20</f>
+        <v>1.5156</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="3"/>
+      <c r="A21" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <f aca="false">C21/B21-$B$1</f>
+        <v>14.21</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">IF(C21&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">IF(C21&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">D21*B21</f>
+        <v>2.5578</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="3"/>
+      <c r="A22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <f aca="false">C22/B22-$B$1</f>
+        <v>-17.79</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">IF(C22&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">IF(C22&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">D22*B22</f>
+        <v>-3.2022</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="3"/>
+      <c r="A23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>8.46</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <f aca="false">C23/B23-$B$1</f>
+        <v>19.71</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">IF(C23&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">IF(C23&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">D23*B23</f>
+        <v>7.0956</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="3"/>
+      <c r="A24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>-8.64</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <f aca="false">C24/B24-$B$1</f>
+        <v>-27.79</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">IF(C24&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">IF(C24&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">D24*B24</f>
+        <v>-10.0044</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="3"/>
+      <c r="A25" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <f aca="false">C25/B25-$B$1</f>
+        <v>-28.79</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">IF(C25&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">IF(C25&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">D25*B25</f>
+        <v>-10.3644</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="3"/>
+      <c r="A26" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <f aca="false">C26/B26-$B$1</f>
+        <v>22.21</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">IF(C26&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">IF(C26&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">D26*B26</f>
+        <v>7.3293</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="3"/>
+      <c r="A27" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <f aca="false">C27/B27-$B$1</f>
+        <v>-28.79</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">IF(C27&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">IF(C27&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">D27*B27</f>
+        <v>-9.7886</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="3"/>
+      <c r="A28" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>-9.52</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <f aca="false">C28/B28-$B$1</f>
+        <v>-31.79</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">IF(C28&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">IF(C28&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">D28*B28</f>
+        <v>-10.8086</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="3"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="3"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="3"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="3"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="3"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="3"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="3"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="3"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="3"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="3"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="3"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="3"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="3"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="3"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="3"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="3"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="3"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="3"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="3"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="3"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="3"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="3"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="3"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="3"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="3"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="3"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="3"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="3"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="3"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="3"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="3"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="3"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="3"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="3"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="3"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="3"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="3"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="3"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="3"/>
+      <c r="D67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="3"/>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="3"/>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="3"/>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="3"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="3"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="3"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="3"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="3"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="3"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="3"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="3"/>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="3"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="3"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="3"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="3"/>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="3"/>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="3"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="3"/>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="3"/>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="3"/>
+      <c r="D87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="3"/>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="3"/>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="3"/>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="3"/>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="3"/>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="3"/>
+      <c r="D93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="3"/>
+      <c r="D94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="3"/>
+      <c r="D95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="3"/>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="3"/>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="3"/>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="3"/>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="3"/>
+      <c r="D100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="3"/>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="3"/>
+      <c r="D102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="3"/>
+      <c r="D103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="3"/>
+      <c r="D104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D105" s="3"/>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="3"/>
+      <c r="D106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="3"/>
+      <c r="D107" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4340,7 +4756,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -4348,7 +4764,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>100</v>
@@ -4356,46 +4772,46 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4824,7 @@
       <c r="C4" s="0" t="n">
         <v>-0.35</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="5" t="n">
         <f aca="false">C4/B4-$B$1</f>
         <v>-35</v>
       </c>
@@ -4463,7 +4879,7 @@
       <c r="C5" s="0" t="n">
         <v>3.27</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">C5/B5-$B$1</f>
         <v>327</v>
       </c>
@@ -4490,7 +4906,7 @@
       <c r="C6" s="0" t="n">
         <v>-3.07</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="5" t="n">
         <f aca="false">C6/B6-$B$1</f>
         <v>-307</v>
       </c>
@@ -4517,7 +4933,7 @@
       <c r="C7" s="0" t="n">
         <v>-4.17</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="5" t="n">
         <f aca="false">C7/B7-$B$1</f>
         <v>-417</v>
       </c>
@@ -4544,7 +4960,7 @@
       <c r="C8" s="0" t="n">
         <v>2.44</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="5" t="n">
         <f aca="false">C8/B8-$B$1</f>
         <v>122</v>
       </c>
@@ -4561,13 +4977,13 @@
         <v>2.44</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,7 +4996,7 @@
       <c r="C9" s="0" t="n">
         <v>0.28</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="5" t="n">
         <f aca="false">C9/B9-$B$1</f>
         <v>28</v>
       </c>
@@ -4619,7 +5035,7 @@
       <c r="C10" s="0" t="n">
         <v>-0.58</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="5" t="n">
         <f aca="false">C10/B10-$B$1</f>
         <v>-58</v>
       </c>
@@ -4646,7 +5062,7 @@
       <c r="C11" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="5" t="n">
         <f aca="false">C11/B11-$B$1</f>
         <v>60</v>
       </c>
@@ -4673,7 +5089,7 @@
       <c r="C12" s="0" t="n">
         <v>0.23</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="5" t="n">
         <f aca="false">C12/B12-$B$1</f>
         <v>23</v>
       </c>
@@ -4700,7 +5116,7 @@
       <c r="C13" s="0" t="n">
         <v>-3.28</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="5" t="n">
         <f aca="false">C13/B13-$B$1</f>
         <v>-328</v>
       </c>
@@ -4727,7 +5143,7 @@
       <c r="C14" s="0" t="n">
         <v>4.82</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="5" t="n">
         <f aca="false">C14/B14-$B$1</f>
         <v>482</v>
       </c>
@@ -4754,7 +5170,7 @@
       <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="5" t="n">
         <f aca="false">C15/B15-$B$1</f>
         <v>300</v>
       </c>
@@ -4781,7 +5197,7 @@
       <c r="C16" s="0" t="n">
         <v>-2.28</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="5" t="n">
         <f aca="false">C16/B16-$B$1</f>
         <v>-228</v>
       </c>
@@ -4808,7 +5224,7 @@
       <c r="C17" s="0" t="n">
         <v>-4.63</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="5" t="n">
         <f aca="false">C17/B17-$B$1</f>
         <v>-463</v>
       </c>
@@ -4835,7 +5251,7 @@
       <c r="C18" s="0" t="n">
         <v>3.44</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="5" t="n">
         <f aca="false">C18/B18-$B$1</f>
         <v>344</v>
       </c>
@@ -4862,7 +5278,7 @@
       <c r="C19" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="5" t="n">
         <f aca="false">C19/B19-$B$1</f>
         <v>150</v>
       </c>
@@ -4889,7 +5305,7 @@
       <c r="C20" s="0" t="n">
         <v>2.51</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="5" t="n">
         <f aca="false">C20/B20-$B$1</f>
         <v>251</v>
       </c>
@@ -4916,7 +5332,7 @@
       <c r="C21" s="0" t="n">
         <v>2.54</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="5" t="n">
         <f aca="false">C21/B21-$B$1</f>
         <v>254</v>
       </c>
@@ -4943,7 +5359,7 @@
       <c r="C22" s="0" t="n">
         <v>1.78</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="5" t="n">
         <f aca="false">C22/B22-$B$1</f>
         <v>178</v>
       </c>
@@ -4970,7 +5386,7 @@
       <c r="C23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="5" t="n">
         <f aca="false">C23/B23-$B$1</f>
         <v>200</v>
       </c>
@@ -4997,7 +5413,7 @@
       <c r="C24" s="0" t="n">
         <v>5.73</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="5" t="n">
         <f aca="false">C24/B24-$B$1</f>
         <v>573</v>
       </c>
@@ -5024,7 +5440,7 @@
       <c r="C25" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="5" t="n">
         <f aca="false">C25/B25-$B$1</f>
         <v>38</v>
       </c>
@@ -5051,7 +5467,7 @@
       <c r="C26" s="0" t="n">
         <v>1.48</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="5" t="n">
         <f aca="false">C26/B26-$B$1</f>
         <v>148</v>
       </c>
@@ -5078,7 +5494,7 @@
       <c r="C27" s="0" t="n">
         <v>1.44</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="5" t="n">
         <f aca="false">C27/B27-$B$1</f>
         <v>144</v>
       </c>
@@ -5105,7 +5521,7 @@
       <c r="C28" s="0" t="n">
         <v>2.36</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="5" t="n">
         <f aca="false">C28/B28-$B$1</f>
         <v>236</v>
       </c>
@@ -5132,7 +5548,7 @@
       <c r="C29" s="0" t="n">
         <v>0.11</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="5" t="n">
         <f aca="false">C29/B29-$B$1</f>
         <v>11</v>
       </c>
@@ -5159,7 +5575,7 @@
       <c r="C30" s="0" t="n">
         <v>-2.05</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="5" t="n">
         <f aca="false">C30/B30-$B$1</f>
         <v>-205</v>
       </c>
@@ -5177,52 +5593,52 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="3"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="3"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="3"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="3"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="3"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="3"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="3"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="3"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="3"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="3"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="3"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="3"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="3"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="3"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="3"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="3"/>
+      <c r="D46" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5256,7 +5672,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>3.79</v>
@@ -5264,7 +5680,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>400</v>
@@ -5272,60 +5688,60 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="7" t="n">
         <f aca="false">-B2*Sheet1!G5/100</f>
         <v>-8</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="5" t="n">
         <f aca="false">C4/B4-$B$1</f>
         <v>-43.79</v>
       </c>
@@ -5378,13 +5794,13 @@
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="B5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">C5/B5-$B$1</f>
         <v>12.21</v>
       </c>
@@ -5405,13 +5821,13 @@
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="5" t="n">
         <f aca="false">C6/B6-$B$1</f>
         <v>1.21</v>
       </c>
@@ -5432,13 +5848,13 @@
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="B7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="5" t="n">
         <f aca="false">C7/B7-$B$1</f>
         <v>15.21</v>
       </c>
@@ -5459,13 +5875,13 @@
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="n">
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="5" t="n">
         <f aca="false">C8/B8-$B$1</f>
         <v>19.21</v>
       </c>
@@ -5482,29 +5898,29 @@
         <v>19.21</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="5" t="n">
         <f aca="false">C9/B9-$B$1</f>
         <v>6.21</v>
       </c>
@@ -5541,13 +5957,13 @@
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="B10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="5" t="n">
         <f aca="false">C10/B10-$B$1</f>
         <v>6.21</v>
       </c>
@@ -5568,13 +5984,13 @@
       <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="n">
+      <c r="B11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="5" t="n">
         <f aca="false">C11/B11-$B$1</f>
         <v>14.21</v>
       </c>
@@ -5595,13 +6011,13 @@
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="n">
+      <c r="B12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="5" t="n">
         <f aca="false">C12/B12-$B$1</f>
         <v>17.21</v>
       </c>
@@ -5622,13 +6038,13 @@
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="n">
+      <c r="B13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="5" t="n">
         <f aca="false">C13/B13-$B$1</f>
         <v>14.21</v>
       </c>
@@ -5655,7 +6071,7 @@
       <c r="C14" s="0" t="n">
         <v>-48</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="5" t="n">
         <f aca="false">C14/B14-$B$1</f>
         <v>-51.79</v>
       </c>
@@ -5676,13 +6092,13 @@
       <c r="A15" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="5" t="n">
         <f aca="false">C15/B15-$B$1</f>
         <v>18.21</v>
       </c>
@@ -5709,7 +6125,7 @@
       <c r="C16" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="5" t="n">
         <f aca="false">C16/B16-$B$1</f>
         <v>34.21</v>
       </c>
@@ -5730,13 +6146,13 @@
       <c r="A17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="5" t="n">
         <f aca="false">C17/B17-$B$1</f>
         <v>21.21</v>
       </c>
@@ -5763,7 +6179,7 @@
       <c r="C18" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="5" t="n">
         <f aca="false">C18/B18-$B$1</f>
         <v>44.21</v>
       </c>
@@ -5784,13 +6200,13 @@
       <c r="A19" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="5" t="n">
         <f aca="false">C19/B19-$B$1</f>
         <v>10.21</v>
       </c>
@@ -5817,7 +6233,7 @@
       <c r="C20" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="5" t="n">
         <f aca="false">C20/B20-$B$1</f>
         <v>8.21</v>
       </c>
@@ -5838,13 +6254,13 @@
       <c r="A21" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="5" t="n">
         <f aca="false">C21/B21-$B$1</f>
         <v>22.21</v>
       </c>
@@ -5862,270 +6278,270 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="3"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="3"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="3"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="3"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="3"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="3"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="3"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="3"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="3"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="3"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="3"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="3"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="3"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="3"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="3"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="3"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="3"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="3"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="3"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="3"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="3"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="3"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="3"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="3"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="3"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="3"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="3"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="3"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="3"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="3"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="3"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="3"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="3"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="3"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="3"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="3"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="3"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="3"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="3"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="3"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="3"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="3"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="3"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="3"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="3"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="3"/>
+      <c r="D67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="3"/>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="3"/>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="3"/>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="3"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="3"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="3"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="3"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="3"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="3"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="3"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="3"/>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="3"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="3"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="3"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="3"/>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="3"/>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="3"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="3"/>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="3"/>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="3"/>
+      <c r="D87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="3"/>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="3"/>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="3"/>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="3"/>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="3"/>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="3"/>
+      <c r="D93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="3"/>
+      <c r="D94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="3"/>
+      <c r="D95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="3"/>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="3"/>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="3"/>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="3"/>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="3"/>
+      <c r="D100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="3"/>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="3"/>
+      <c r="D102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="3"/>
+      <c r="D103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="3"/>
+      <c r="D104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D105" s="3"/>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="3"/>
+      <c r="D106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="3"/>
+      <c r="D107" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/kelly.xlsx
+++ b/kelly.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t xml:space="preserve">Kelly Kriterine Gore Lot ve Para Yonetimi</t>
   </si>
@@ -190,6 +190,12 @@
   <si>
     <t xml:space="preserve">Ortalama lot</t>
   </si>
+  <si>
+    <t xml:space="preserve">Kelly Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simdiki kelly lot</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +206,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="#\ ##0.00;\-#\ ##0.00;0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="FreeSans"/>
@@ -232,6 +238,12 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -306,7 +318,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,6 +357,10 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -427,7 +443,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,22 +497,22 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <f aca="false">Caga!N4</f>
-        <v>16.8202941176471</v>
+        <v>17.3103787878788</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">Caga!O4</f>
-        <v>27.2185714285714</v>
+        <v>28.5042857142857</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">ROUND(Caga!M4,2)</f>
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100000</v>
       </c>
       <c r="E5" s="2" t="n">
         <f aca="false">Caga!Q4</f>
-        <v>411.5769</v>
+        <v>349.0099</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>500</v>
@@ -545,43 +561,43 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <f aca="false">(A5+B5)/B5</f>
-        <v>1.6179712319505</v>
+        <v>1.60729038999224</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">ROUND(1-$C$5,2)</f>
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">ROUND(C5-B9/(A9-1),2)</f>
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">ROUND(E5/D5*(0.7*F5),2)</f>
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">ROUND($C$9*$D$9,2)</f>
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">ROUND(E9*B5,2)</f>
-        <v>9.53</v>
+        <v>0.57</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">ROUND(F9/E5*100,1)</f>
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H9" s="3" t="n">
         <f aca="false">ROUND(G5/G9*E9,2)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="3" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(B5)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" s="3" t="n">
         <f aca="false">_xlfn.CEILING.MATH(A5)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,7 +615,7 @@
       </c>
       <c r="F11" s="3" t="n">
         <f aca="false">H9*I9</f>
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,11 +654,11 @@
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(B17*C5)</f>
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">B16*C5</f>
-        <v>12.07</v>
+        <v>10.71</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -654,14 +670,14 @@
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^C18*(1-C9*D11*B5)^(B16-C18)-E5</f>
-        <v>23.4090988136824</v>
+        <v>0.141992162094482</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5*G5/G9)^C18*(1-C9*D11*B5*G5/G9)^(B16-C18)-E5</f>
-        <v>20.4047676064941</v>
+        <v>0.776560419025032</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,14 +686,14 @@
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">B21-E5</f>
-        <v>950.716832900483</v>
+        <v>2.43743554822947</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">F21-E5</f>
-        <v>761.139041336821</v>
+        <v>10.2453928768735</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,14 +702,14 @@
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5)^B18*(1-C9*D11*B5)^(B17-B18)</f>
-        <v>1362.29373290048</v>
+        <v>351.447335548229</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">E5*(1+C9*D11*A5*G5/G9)^B18*(1-C9*D11*B5*G5/G9)^(B17-B18)</f>
-        <v>1172.71594133682</v>
+        <v>359.255292876874</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,7 +726,7 @@
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">(A5*C5-B5*(1-C5))*B16*B24</f>
-        <v>0.688333928571429</v>
+        <v>0.0610219967532464</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,7 +735,7 @@
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">B25*B15</f>
-        <v>15.1433464285714</v>
+        <v>1.34248392857142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,7 +744,7 @@
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">E5+B26</f>
-        <v>426.720246428571</v>
+        <v>350.352383928571</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +753,7 @@
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(Caga!O9,0.01)</f>
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +762,7 @@
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">B30*(A5*C5-(1-C5)*B5)*B16</f>
-        <v>16.5200142857143</v>
+        <v>2.25781387987012</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +771,7 @@
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">B15*B31</f>
-        <v>363.440314285714</v>
+        <v>49.6719053571426</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,7 +780,7 @@
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">E5+B32</f>
-        <v>775.017214285715</v>
+        <v>398.681805357143</v>
       </c>
     </row>
   </sheetData>
@@ -3683,10 +3699,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3695,6 +3711,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,35 +3803,35 @@
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">SUM(F5:F118)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">SUM(E5:E108)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">L4/(L4+K4)</f>
-        <v>0.708333333333333</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">SUMIF(E5:E211,1,D5:D211)/L4</f>
-        <v>16.8202941176471</v>
+        <v>17.3103787878788</v>
       </c>
       <c r="O4" s="0" t="n">
         <f aca="false">ABS(SUMIF(F5:F209,1,D5:D209)/K4)</f>
-        <v>27.2185714285714</v>
+        <v>28.5042857142857</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">SUM(G5:G59)</f>
-        <v>11.5769</v>
+        <v>-50.9901</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">B2+P4</f>
-        <v>411.5769</v>
+        <v>349.0099</v>
       </c>
       <c r="R4" s="0" t="n">
         <f aca="false">Q4-G4</f>
-        <v>420.3349</v>
+        <v>357.7679</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,19 +3982,19 @@
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">STDEV(G4:G107)</f>
-        <v>7.19311012781676</v>
+        <v>13.9224605157241</v>
       </c>
       <c r="L9" s="0" t="n">
         <f aca="false">AVERAGE(G4:G107)</f>
-        <v>0.112756</v>
+        <v>-1.65966944444444</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">L9/K9</f>
-        <v>0.0156755559134229</v>
+        <v>-0.119208055398685</v>
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">AVERAGE(B5:B43)</f>
-        <v>0.245416666666667</v>
+        <v>0.376857142857143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,6 +4266,9 @@
         <f aca="false">D19*B19</f>
         <v>-1.4022</v>
       </c>
+      <c r="K19" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -4276,6 +4296,12 @@
         <f aca="false">D20*B20</f>
         <v>1.5156</v>
       </c>
+      <c r="R20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -4303,6 +4329,27 @@
         <f aca="false">D21*B21</f>
         <v>2.5578</v>
       </c>
+      <c r="K21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -4330,6 +4377,35 @@
         <f aca="false">D22*B22</f>
         <v>-3.2022</v>
       </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <f aca="false">$S$20/B5*C5</f>
+        <v>0.49</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <f aca="false">M22/L22-$B$1</f>
+        <v>20.71</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">IF(M22&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">IF(M22&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">N22*$S$20</f>
+        <v>0.4142</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -4357,6 +4433,36 @@
         <f aca="false">D23*B23</f>
         <v>7.0956</v>
       </c>
+      <c r="K23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <f aca="false">$S$20/B6*C6</f>
+        <v>0.36</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <f aca="false">M23/L23-$B$1</f>
+        <v>14.21</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">IF(M23&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">IF(M23&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">N23*$S$20</f>
+        <v>0.2842</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">SUM(Q22:Q56)</f>
+        <v>-0.0107194884519465</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -4384,6 +4490,32 @@
         <f aca="false">D24*B24</f>
         <v>-10.0044</v>
       </c>
+      <c r="K24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <f aca="false">$S$20/B7*C7</f>
+        <v>0.4475</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <f aca="false">M24/L24-$B$1</f>
+        <v>-0.993125</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">IF(M24&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">IF(M24&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">N24*$S$20</f>
+        <v>-0.0198625</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -4411,6 +4543,32 @@
         <f aca="false">D25*B25</f>
         <v>-10.3644</v>
       </c>
+      <c r="K25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <f aca="false">$S$20/B8*C8</f>
+        <v>0.52</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <f aca="false">M25/L25-$B$1</f>
+        <v>9.21</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">IF(M25&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">IF(M25&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">N25*$S$20</f>
+        <v>0.1842</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -4438,6 +4596,32 @@
         <f aca="false">D26*B26</f>
         <v>7.3293</v>
       </c>
+      <c r="K26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <f aca="false">$S$20/B9*C9</f>
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <f aca="false">M26/L26-$B$1</f>
+        <v>21.21</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">IF(M26&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">IF(M26&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">N26*$S$20</f>
+        <v>0.4242</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -4465,6 +4649,32 @@
         <f aca="false">D27*B27</f>
         <v>-9.7886</v>
       </c>
+      <c r="K27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <f aca="false">$S$20/B10*C10</f>
+        <v>0.42</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <f aca="false">M27/L27-$B$1</f>
+        <v>38.21</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">IF(M27&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">IF(M27&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <f aca="false">N27*$S$20</f>
+        <v>0.7642</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -4492,93 +4702,1094 @@
         <f aca="false">D28*B28</f>
         <v>-10.8086</v>
       </c>
+      <c r="K28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <f aca="false">$S$20/B11*C11</f>
+        <v>0.32</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <f aca="false">M28/L28-$B$1</f>
+        <v>1.54333333333333</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">IF(M28&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">IF(M28&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">N28*$S$20</f>
+        <v>0.0308666666666667</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="5"/>
+      <c r="A29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <f aca="false">C29/B29-$B$1</f>
+        <v>-28.79</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">IF(C29&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">IF(C29&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">D29*B29</f>
+        <v>-8.637</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M29" s="7" t="n">
+        <f aca="false">$S$20/B12*C12</f>
+        <v>0.42</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <f aca="false">M29/L29-$B$1</f>
+        <v>-1.165</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">IF(M29&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">IF(M29&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <f aca="false">N29*$S$20</f>
+        <v>-0.0233</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="5"/>
+      <c r="A30" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <f aca="false">C30/B30-$B$1</f>
+        <v>-28.79</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">IF(C30&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">IF(C30&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">D30*B30</f>
+        <v>-8.637</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M30" s="7" t="n">
+        <f aca="false">$S$20/B13*C13</f>
+        <v>0.28</v>
+      </c>
+      <c r="N30" s="5" t="n">
+        <f aca="false">M30/L30-$B$1</f>
+        <v>-2.04</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">IF(M30&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">IF(M30&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <f aca="false">N30*$S$20</f>
+        <v>-0.0408</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="5"/>
+      <c r="A31" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <f aca="false">C31/B31-$B$1</f>
+        <v>7.21</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">IF(C31&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">IF(C31&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">D31*B31</f>
+        <v>2.163</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M31" s="7" t="n">
+        <f aca="false">$S$20/B14*C14</f>
+        <v>-0.88</v>
+      </c>
+      <c r="N31" s="5" t="n">
+        <f aca="false">M31/L31-$B$1</f>
+        <v>-8.67888888888889</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">IF(M31&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">IF(M31&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">N31*$S$20</f>
+        <v>-0.173577777777778</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="5"/>
+      <c r="A32" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <f aca="false">C32/B32-$B$1</f>
+        <v>23.21</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">IF(C32&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">IF(C32&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">D32*B32</f>
+        <v>13.926</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="7" t="n">
+        <f aca="false">$S$20/B15*C15</f>
+        <v>0.38</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <f aca="false">M32/L32-$B$1</f>
+        <v>0.00999999999999934</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">IF(M32&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">IF(M32&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <f aca="false">N32*$S$20</f>
+        <v>0.000199999999999987</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="5"/>
+      <c r="A33" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <f aca="false">C33/B33-$B$1</f>
+        <v>-29.79</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">IF(C33&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">IF(C33&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">D33*B33</f>
+        <v>-8.937</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M33" s="7" t="n">
+        <f aca="false">$S$20/B16*C16</f>
+        <v>0.44</v>
+      </c>
+      <c r="N33" s="5" t="n">
+        <f aca="false">M33/L33-$B$1</f>
+        <v>-3.24</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">IF(M33&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">IF(M33&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <f aca="false">N33*$S$20</f>
+        <v>-0.0648</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="5"/>
+      <c r="A34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <f aca="false">C34/B34-$B$1</f>
+        <v>32.5433333333333</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">IF(C34&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">IF(C34&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">D34*B34</f>
+        <v>29.289</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7" t="n">
+        <f aca="false">$S$20/B17*C17</f>
+        <v>0.42</v>
+      </c>
+      <c r="N34" s="5" t="n">
+        <f aca="false">M34/L34-$B$1</f>
+        <v>-3.37</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">IF(M34&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">IF(M34&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <f aca="false">N34*$S$20</f>
+        <v>-0.0674</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="5"/>
+      <c r="A35" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <f aca="false">C35/B35-$B$1</f>
+        <v>-27.79</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">IF(C35&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">IF(C35&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">D35*B35</f>
+        <v>-8.337</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M35" s="7" t="n">
+        <f aca="false">$S$20/B18*C18</f>
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="5" t="n">
+        <f aca="false">M35/L35-$B$1</f>
+        <v>-1.01222222222222</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">IF(M35&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">IF(M35&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <f aca="false">N35*$S$20</f>
+        <v>-0.0202444444444444</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="5"/>
+      <c r="A36" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <f aca="false">C36/B36-$B$1</f>
+        <v>8.71</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">IF(C36&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">IF(C36&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">D36*B36</f>
+        <v>10.452</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M36" s="7" t="n">
+        <f aca="false">$S$20/B19*C19</f>
+        <v>-0.08</v>
+      </c>
+      <c r="N36" s="5" t="n">
+        <f aca="false">M36/L36-$B$1</f>
+        <v>-4.23444444444445</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">IF(M36&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">IF(M36&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <f aca="false">N36*$S$20</f>
+        <v>-0.0846888888888889</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="5"/>
+      <c r="B37" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <f aca="false">C37/B37-$B$1</f>
+        <v>-31.29</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">IF(C37&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">IF(C37&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">D37*B37</f>
+        <v>-43.806</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M37" s="7" t="n">
+        <f aca="false">$S$20/B20*C20</f>
+        <v>0.16</v>
+      </c>
+      <c r="N37" s="5" t="n">
+        <f aca="false">M37/L37-$B$1</f>
+        <v>-3.34555555555556</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">IF(M37&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">IF(M37&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">N37*$S$20</f>
+        <v>-0.0669111111111111</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="5"/>
+      <c r="B38" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <f aca="false">C38/B38-$B$1</f>
+        <v>23.21</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">IF(C38&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">IF(C38&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">D38*B38</f>
+        <v>6.963</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M38" s="7" t="n">
+        <f aca="false">$S$20/B21*C21</f>
+        <v>0.36</v>
+      </c>
+      <c r="N38" s="5" t="n">
+        <f aca="false">M38/L38-$B$1</f>
+        <v>-1.79</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">IF(M38&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">IF(M38&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">N38*$S$20</f>
+        <v>-0.0358</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="5"/>
+      <c r="B39" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>-41.7</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <f aca="false">C39/B39-$B$1</f>
+        <v>-33.5757142857143</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">IF(C39&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">IF(C39&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">D39*B39</f>
+        <v>-47.006</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M39" s="7" t="n">
+        <f aca="false">$S$20/B22*C22</f>
+        <v>-0.28</v>
+      </c>
+      <c r="N39" s="5" t="n">
+        <f aca="false">M39/L39-$B$1</f>
+        <v>-5.34555555555556</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">IF(M39&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <f aca="false">IF(M39&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <f aca="false">N39*$S$20</f>
+        <v>-0.106911111111111</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="5"/>
+      <c r="K40" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M40" s="7" t="n">
+        <f aca="false">$S$20/B23*C23</f>
+        <v>0.47</v>
+      </c>
+      <c r="N40" s="5" t="n">
+        <f aca="false">M40/L40-$B$1</f>
+        <v>-2.48444444444444</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <f aca="false">IF(M40&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <f aca="false">IF(M40&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <f aca="false">N40*$S$20</f>
+        <v>-0.0496888888888889</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="5"/>
+      <c r="K41" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M41" s="7" t="n">
+        <f aca="false">$S$20/B24*C24</f>
+        <v>-0.48</v>
+      </c>
+      <c r="N41" s="5" t="n">
+        <f aca="false">M41/L41-$B$1</f>
+        <v>-5.12333333333333</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="false">IF(M41&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">IF(M41&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <f aca="false">N41*$S$20</f>
+        <v>-0.102466666666667</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="5"/>
+      <c r="K42" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M42" s="7" t="n">
+        <f aca="false">$S$20/B25*C25</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N42" s="5" t="n">
+        <f aca="false">M42/L42-$B$1</f>
+        <v>-5.17888888888889</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="false">IF(M42&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">IF(M42&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <f aca="false">N42*$S$20</f>
+        <v>-0.103577777777778</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="5"/>
+      <c r="K43" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M43" s="7" t="n">
+        <f aca="false">$S$20/B26*C26</f>
+        <v>0.52</v>
+      </c>
+      <c r="N43" s="5" t="n">
+        <f aca="false">M43/L43-$B$1</f>
+        <v>-2.21424242424242</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">IF(M43&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">IF(M43&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <f aca="false">N43*$S$20</f>
+        <v>-0.0442848484848485</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="5"/>
+      <c r="K44" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M44" s="7" t="n">
+        <f aca="false">$S$20/B27*C27</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N44" s="5" t="n">
+        <f aca="false">M44/L44-$B$1</f>
+        <v>-5.26058823529412</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">IF(M44&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">IF(M44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <f aca="false">N44*$S$20</f>
+        <v>-0.105211764705882</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="5"/>
+      <c r="K45" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M45" s="7" t="n">
+        <f aca="false">$S$20/B28*C28</f>
+        <v>-0.56</v>
+      </c>
+      <c r="N45" s="5" t="n">
+        <f aca="false">M45/L45-$B$1</f>
+        <v>-5.43705882352941</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">IF(M45&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">IF(M45&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <f aca="false">N45*$S$20</f>
+        <v>-0.108741176470588</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="5"/>
+      <c r="K46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M46" s="7" t="n">
+        <f aca="false">$S$20/B29*C29</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N46" s="5" t="n">
+        <f aca="false">M46/L46-$B$1</f>
+        <v>-5.45666666666667</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">IF(M46&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">IF(M46&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <f aca="false">N46*$S$20</f>
+        <v>-0.109133333333333</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="5"/>
+      <c r="K47" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M47" s="7" t="n">
+        <f aca="false">$S$20/B30*C30</f>
+        <v>-0.5</v>
+      </c>
+      <c r="N47" s="5" t="n">
+        <f aca="false">M47/L47-$B$1</f>
+        <v>-5.45666666666667</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">IF(M47&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">IF(M47&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <f aca="false">N47*$S$20</f>
+        <v>-0.109133333333333</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="5"/>
+      <c r="K48" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M48" s="7" t="n">
+        <f aca="false">$S$20/B31*C31</f>
+        <v>0.22</v>
+      </c>
+      <c r="N48" s="5" t="n">
+        <f aca="false">M48/L48-$B$1</f>
+        <v>-3.05666666666667</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">IF(M48&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">IF(M48&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <f aca="false">N48*$S$20</f>
+        <v>-0.0611333333333333</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="5"/>
+      <c r="K49" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M49" s="7" t="n">
+        <f aca="false">$S$20/B32*C32</f>
+        <v>0.54</v>
+      </c>
+      <c r="N49" s="5" t="n">
+        <f aca="false">M49/L49-$B$1</f>
+        <v>-2.89</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false">IF(M49&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">IF(M49&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <f aca="false">N49*$S$20</f>
+        <v>-0.0578</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="5"/>
+      <c r="K50" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M50" s="7" t="n">
+        <f aca="false">$S$20/B33*C33</f>
+        <v>-0.52</v>
+      </c>
+      <c r="N50" s="5" t="n">
+        <f aca="false">M50/L50-$B$1</f>
+        <v>-5.52333333333333</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="false">IF(M50&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">IF(M50&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <f aca="false">N50*$S$20</f>
+        <v>-0.110466666666667</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="5"/>
+      <c r="K51" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <f aca="false">$S$20/B34*C34</f>
+        <v>0.726666666666667</v>
+      </c>
+      <c r="N51" s="5" t="n">
+        <f aca="false">M51/L51-$B$1</f>
+        <v>-2.98259259259259</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="false">IF(M51&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">IF(M51&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <f aca="false">N51*$S$20</f>
+        <v>-0.0596518518518518</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="5"/>
+      <c r="K52" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M52" s="7" t="n">
+        <f aca="false">$S$20/B35*C35</f>
+        <v>-0.48</v>
+      </c>
+      <c r="N52" s="5" t="n">
+        <f aca="false">M52/L52-$B$1</f>
+        <v>-5.39</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="false">IF(M52&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">IF(M52&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <f aca="false">N52*$S$20</f>
+        <v>-0.1078</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="5"/>
+      <c r="K53" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M53" s="7" t="n">
+        <f aca="false">$S$20/B36*C36</f>
+        <v>0.25</v>
+      </c>
+      <c r="N53" s="5" t="n">
+        <f aca="false">M53/L53-$B$1</f>
+        <v>-3.58166666666667</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">IF(M53&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">IF(M53&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">N53*$S$20</f>
+        <v>-0.0716333333333333</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="5"/>
+      <c r="L54" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M54" s="7" t="n">
+        <f aca="false">$S$20/B37*C37</f>
+        <v>-0.55</v>
+      </c>
+      <c r="N54" s="5" t="n">
+        <f aca="false">M54/L54-$B$1</f>
+        <v>-4.18285714285714</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">IF(M54&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">IF(M54&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">N54*$S$20</f>
+        <v>-0.0836571428571429</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="5"/>
+      <c r="L55" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M55" s="7" t="n">
+        <f aca="false">$S$20/B38*C38</f>
+        <v>0.54</v>
+      </c>
+      <c r="N55" s="5" t="n">
+        <f aca="false">M55/L55-$B$1</f>
+        <v>-1.99</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="false">IF(M55&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">IF(M55&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">N55*$S$20</f>
+        <v>-0.0398</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="5"/>
+      <c r="L56" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M56" s="7" t="n">
+        <f aca="false">$S$20/B39*C39</f>
+        <v>-0.595714285714286</v>
+      </c>
+      <c r="N56" s="5" t="n">
+        <f aca="false">M56/L56-$B$1</f>
+        <v>-4.21551020408163</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <f aca="false">IF(M56&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">IF(M56&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <f aca="false">N56*$S$20</f>
+        <v>-0.0843102040816327</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="5"/>
+      <c r="N57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="5"/>
@@ -6540,8 +7751,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>